--- a/reference/IN10/raw_variables/MatlabTrial/data_20070521.xlsx
+++ b/reference/IN10/raw_variables/MatlabTrial/data_20070521.xlsx
@@ -1,27 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\raw_variables\MatlabTrial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8C46B-FDC2-4B2D-A6C3-E3B63BBA6656}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="530" windowWidth="12040" windowHeight="10270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
+    <t>i_nom_obs</t>
+  </si>
+  <si>
+    <t>h_winf_obs</t>
+  </si>
+  <si>
+    <t>rc_obs</t>
+  </si>
+  <si>
+    <t>rri_obs</t>
+  </si>
+  <si>
+    <t>hwr_pd_obs</t>
+  </si>
+  <si>
+    <t>hp_r_obs</t>
+  </si>
+  <si>
+    <t>c_winf_obs</t>
+  </si>
+  <si>
+    <t>hwc_pd_obs</t>
+  </si>
+  <si>
+    <t>rbi_obs</t>
+  </si>
+  <si>
+    <t>pi_dm_obs</t>
+  </si>
+  <si>
     <t>1965Q1</t>
   </si>
   <si>
@@ -524,43 +548,13 @@
   </si>
   <si>
     <t>2006Q4</t>
-  </si>
-  <si>
-    <t>data_NH</t>
-  </si>
-  <si>
-    <t>data_IH</t>
-  </si>
-  <si>
-    <t>data_CC</t>
-  </si>
-  <si>
-    <t>data_RR</t>
-  </si>
-  <si>
-    <t>data_WC</t>
-  </si>
-  <si>
-    <t>data_IK</t>
-  </si>
-  <si>
-    <t>data_DP</t>
-  </si>
-  <si>
-    <t>data_NC</t>
-  </si>
-  <si>
-    <t>data_WH</t>
-  </si>
-  <si>
-    <t>data_QQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,13 +606,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,14 +617,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -680,7 +663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,27 +695,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,24 +729,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -957,5925 +904,5920 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-5.9741956059973081E-2</v>
+        <v>-0.00487721893491124</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.002605860244852907</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-4.8772189349112396E-3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.7203464655549621</v>
+        <v>-0.05974195605997308</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.0701719837898344E-3</v>
+        <v>-0.0009119575261320127</v>
       </c>
       <c r="I2">
-        <v>-0.13789168112575509</v>
+        <v>-0.1378916811257551</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005070171983789834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>-6.1184430430851422E-2</v>
+        <v>-0.004918885601577907</v>
       </c>
       <c r="C3">
-        <v>4.0138731913872414E-3</v>
+        <v>0.002418978770842437</v>
       </c>
       <c r="D3">
-        <v>6.975044395717056E-3</v>
+        <v>0.006975044395717056</v>
       </c>
       <c r="E3">
-        <v>-4.9188856015779069E-3</v>
+        <v>0.004013873191387241</v>
       </c>
       <c r="F3">
-        <v>-1.721727176434205</v>
+        <v>-0.06118443043085142</v>
       </c>
       <c r="G3">
-        <v>3.3109893231161543E-2</v>
+        <v>-0.0008603692948724317</v>
       </c>
       <c r="H3">
-        <v>-8.2706854908521314E-3</v>
+        <v>-0.002292668405374976</v>
       </c>
       <c r="I3">
-        <v>-0.13182305295257901</v>
+        <v>-0.131823052952579</v>
       </c>
       <c r="J3">
-        <v>1.39669991198442E-3</v>
+        <v>0.03310989323116154</v>
       </c>
       <c r="K3">
-        <v>-8.6036929487265379E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.008270685490852131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-4.8351038406782697E-2</v>
+        <v>-0.004935552268244573</v>
       </c>
       <c r="C4">
-        <v>4.7000131054781846E-3</v>
+        <v>-0.004953476407430126</v>
       </c>
       <c r="D4">
-        <v>2.066179358093212E-2</v>
+        <v>0.02066179358093212</v>
       </c>
       <c r="E4">
-        <v>-4.9355522682445734E-3</v>
+        <v>0.004700013105478185</v>
       </c>
       <c r="F4">
-        <v>-1.720543474952948</v>
+        <v>-0.0483510384067827</v>
       </c>
       <c r="G4">
-        <v>6.6555103644008184E-2</v>
+        <v>-0.004794284675047611</v>
       </c>
       <c r="H4">
-        <v>-5.1971394055488288E-3</v>
+        <v>-0.001108966924117627</v>
       </c>
       <c r="I4">
-        <v>-0.12531828113660251</v>
+        <v>-0.1253182811366025</v>
       </c>
       <c r="J4">
-        <v>-4.9314492481101896E-3</v>
+        <v>0.06655510364400818</v>
       </c>
       <c r="K4">
-        <v>1.095509381015769E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005197139405548829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>-2.952782989373259E-2</v>
+        <v>-0.004185552268244573</v>
       </c>
       <c r="C5">
-        <v>-2.0887933572756982E-2</v>
+        <v>0.002154795355425319</v>
       </c>
       <c r="D5">
-        <v>4.5039676566774212E-2</v>
+        <v>0.04503967656677421</v>
       </c>
       <c r="E5">
-        <v>-4.1855522682445728E-3</v>
+        <v>-0.02088793357275698</v>
       </c>
       <c r="F5">
-        <v>-1.7193962911630321</v>
+        <v>-0.02952782989373259</v>
       </c>
       <c r="G5">
-        <v>0.1049907028122163</v>
+        <v>0.01742989744559598</v>
       </c>
       <c r="H5">
-        <v>-6.4576852846412406E-3</v>
+        <v>3.82168657977796e-05</v>
       </c>
       <c r="I5">
         <v>-0.1133235973856395</v>
       </c>
       <c r="J5">
-        <v>4.2186358207364364E-3</v>
+        <v>0.1049907028122163</v>
       </c>
       <c r="K5">
-        <v>1.99997405244795E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.006457685284641241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.405061028272684E-2</v>
+        <v>-0.00307721893491124</v>
       </c>
       <c r="C6">
-        <v>-8.2816742840297053E-4</v>
+        <v>0.0009753637171132958</v>
       </c>
       <c r="D6">
-        <v>5.6961847974969608E-2</v>
+        <v>0.05696184797496961</v>
       </c>
       <c r="E6">
-        <v>-3.0772189349112401E-3</v>
+        <v>-0.0008281674284029705</v>
       </c>
       <c r="F6">
-        <v>-1.7232331252153761</v>
+        <v>-0.01405061028272684</v>
       </c>
       <c r="G6">
-        <v>0.14499573587156339</v>
+        <v>0.00578788114107831</v>
       </c>
       <c r="H6">
-        <v>-5.7195376177224203E-3</v>
+        <v>-0.003798617186546028</v>
       </c>
       <c r="I6">
-        <v>-9.4111487185331466E-2</v>
+        <v>-0.09411148718533147</v>
       </c>
       <c r="J6">
-        <v>9.78711191593859E-4</v>
+        <v>0.1449957358715634</v>
       </c>
       <c r="K6">
-        <v>5.8576210113906457E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00571953761772242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-3.4774065794877587E-2</v>
+        <v>-0.003135552268244574</v>
       </c>
       <c r="C7">
-        <v>-8.7508097383981465E-2</v>
+        <v>0.01267604276981918</v>
       </c>
       <c r="D7">
-        <v>5.6933114217257767E-2</v>
+        <v>0.05693311421725777</v>
       </c>
       <c r="E7">
-        <v>-3.1355522682445739E-3</v>
+        <v>-0.08750809738398146</v>
       </c>
       <c r="F7">
-        <v>-1.720831401446052</v>
+        <v>-0.03477406579487759</v>
       </c>
       <c r="G7">
-        <v>0.15758878655838071</v>
+        <v>0.03583307184071305</v>
       </c>
       <c r="H7">
-        <v>1.3151158693779971E-3</v>
+        <v>-0.001396893417221568</v>
       </c>
       <c r="I7">
-        <v>-8.267759164871169E-2</v>
+        <v>-0.08267759164871169</v>
       </c>
       <c r="J7">
-        <v>1.266799935296779E-2</v>
+        <v>0.1575887865583807</v>
       </c>
       <c r="K7">
-        <v>3.8455041691918601E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001315115869377997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-2.9207193998188431E-2</v>
+        <v>-0.001993885601577908</v>
       </c>
       <c r="C8">
-        <v>-0.12351072970390579</v>
+        <v>0.002487182602600977</v>
       </c>
       <c r="D8">
-        <v>6.5460556209134602E-2</v>
+        <v>0.0654605562091346</v>
       </c>
       <c r="E8">
-        <v>-1.9938856015779081E-3</v>
+        <v>-0.1235107297039058</v>
       </c>
       <c r="F8">
-        <v>-1.718500573323148</v>
+        <v>-0.02920719399818843</v>
       </c>
       <c r="G8">
+        <v>0.0118949320184516</v>
+      </c>
+      <c r="H8">
+        <v>0.000933934705682626</v>
+      </c>
+      <c r="I8">
+        <v>-0.08074456592972235</v>
+      </c>
+      <c r="J8">
         <v>0.1665478619416669</v>
       </c>
-      <c r="H8">
-        <v>-1.19325630990424E-3</v>
-      </c>
-      <c r="I8">
-        <v>-8.0744565929722345E-2</v>
-      </c>
-      <c r="J8">
-        <v>5.5339042244050007E-4</v>
-      </c>
       <c r="K8">
-        <v>1.4491259200253849E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00119325630990424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-5.2057333386362613E-2</v>
+        <v>-0.00157721893491124</v>
       </c>
       <c r="C9">
-        <v>-0.23686238903783791</v>
+        <v>-0.001524267413178983</v>
       </c>
       <c r="D9">
-        <v>6.6592517289776332E-2</v>
+        <v>0.06659251728977633</v>
       </c>
       <c r="E9">
-        <v>-1.57721893491124E-3</v>
+        <v>-0.2368623890378379</v>
       </c>
       <c r="F9">
-        <v>-1.7210455905848041</v>
+        <v>-0.05205733338636261</v>
       </c>
       <c r="G9">
-        <v>0.16104409352422169</v>
+        <v>0.02395902927803473</v>
       </c>
       <c r="H9">
-        <v>2.7103688082469931E-3</v>
+        <v>-0.00161108255597372</v>
       </c>
       <c r="I9">
-        <v>-7.7040858658487643E-2</v>
+        <v>-0.07704085865848764</v>
       </c>
       <c r="J9">
-        <v>4.1817306032508611E-4</v>
+        <v>0.1610440935242217</v>
       </c>
       <c r="K9">
-        <v>2.4224783523361881E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002710368808246993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-5.4613278906118327E-2</v>
+        <v>-0.003318885601577908</v>
       </c>
       <c r="C10">
-        <v>-0.27074987170280718</v>
+        <v>0.002175277575152488</v>
       </c>
       <c r="D10">
-        <v>6.9145875285974157E-2</v>
+        <v>0.06914587528597416</v>
       </c>
       <c r="E10">
-        <v>-3.3188856015779079E-3</v>
+        <v>-0.2707498717028072</v>
       </c>
       <c r="F10">
-        <v>-1.721137828610861</v>
+        <v>-0.05461327890611833</v>
       </c>
       <c r="G10">
-        <v>0.13649100064342881</v>
+        <v>0.02672099966555264</v>
       </c>
       <c r="H10">
-        <v>-4.0498477122166646E-3</v>
+        <v>-0.001703320582030344</v>
       </c>
       <c r="I10">
-        <v>-8.461389187546331E-2</v>
+        <v>-0.08461389187546331</v>
       </c>
       <c r="J10">
-        <v>2.860464828718795E-4</v>
+        <v>0.1364910006434288</v>
       </c>
       <c r="K10">
-        <v>2.936781022571322E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004049847712216665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-8.6773181183839698E-2</v>
+        <v>-0.00545221893491124</v>
       </c>
       <c r="C11">
-        <v>-0.16725380987980021</v>
+        <v>0.004797035904259537</v>
       </c>
       <c r="D11">
-        <v>7.8716310919142884E-2</v>
+        <v>0.07871631091914288</v>
       </c>
       <c r="E11">
-        <v>-5.4522189349112404E-3</v>
+        <v>-0.1672538098798002</v>
       </c>
       <c r="F11">
-        <v>-1.7212283200785661</v>
+        <v>-0.0867731811838397</v>
       </c>
       <c r="G11">
-        <v>0.12931163179236019</v>
+        <v>0.01300489242766056</v>
       </c>
       <c r="H11">
-        <v>-3.2581250088581869E-3</v>
+        <v>-0.001793812049736132</v>
       </c>
       <c r="I11">
-        <v>-9.1696748567983821E-2</v>
+        <v>-0.09169674856798382</v>
       </c>
       <c r="J11">
-        <v>5.7591614618524986E-3</v>
+        <v>0.1293116317923602</v>
       </c>
       <c r="K11">
-        <v>1.800251670082131E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003258125008858187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-6.747169285322252E-2</v>
+        <v>-0.003852218934911241</v>
       </c>
       <c r="C12">
+        <v>0.01276193042333909</v>
+      </c>
+      <c r="D12">
+        <v>0.07888371361715496</v>
+      </c>
+      <c r="E12">
         <v>-0.1228567096467623</v>
       </c>
-      <c r="D12">
-        <v>7.888371361715496E-2</v>
-      </c>
-      <c r="E12">
-        <v>-3.852218934911241E-3</v>
-      </c>
       <c r="F12">
-        <v>-1.716660528300582</v>
+        <v>-0.06747169285322252</v>
       </c>
       <c r="G12">
+        <v>0.004192172273147055</v>
+      </c>
+      <c r="H12">
+        <v>0.002773979728247699</v>
+      </c>
+      <c r="I12">
+        <v>-0.08593827052604608</v>
+      </c>
+      <c r="J12">
         <v>0.1192093903648743</v>
       </c>
-      <c r="H12">
-        <v>-3.1833463121083179E-4</v>
-      </c>
-      <c r="I12">
-        <v>-8.5938270526046079E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.3686212313119049E-2</v>
-      </c>
       <c r="K12">
-        <v>9.1897965463078046E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0003183346312108318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-5.9441391172324158E-2</v>
+        <v>-0.002718885601577908</v>
       </c>
       <c r="C13">
-        <v>-7.0940471086543333E-2</v>
+        <v>0.007752710991385112</v>
       </c>
       <c r="D13">
-        <v>8.0315164645301529E-2</v>
+        <v>0.08031516464530153</v>
       </c>
       <c r="E13">
-        <v>-2.718885601577908E-3</v>
+        <v>-0.07094047108654333</v>
       </c>
       <c r="F13">
-        <v>-1.718000926935717</v>
+        <v>-0.05944139117232416</v>
       </c>
       <c r="G13">
-        <v>0.13482493585394281</v>
+        <v>0.01813497294993027</v>
       </c>
       <c r="H13">
-        <v>2.7350853448332961E-4</v>
+        <v>0.001433581093113345</v>
       </c>
       <c r="I13">
-        <v>-8.0563482265368247E-2</v>
+        <v>-0.08056348226536825</v>
       </c>
       <c r="J13">
-        <v>7.7513000192109688E-3</v>
+        <v>0.1348249358539428</v>
       </c>
       <c r="K13">
-        <v>2.0035146353089561E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0002735085344833296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-8.7731833845807627E-2</v>
+        <v>-0.001977218934911242</v>
       </c>
       <c r="C14">
-        <v>-6.85774226470377E-2</v>
+        <v>0.01177044076289782</v>
       </c>
       <c r="D14">
         <v>0.1000007281969575</v>
       </c>
       <c r="E14">
-        <v>-1.9772189349112419E-3</v>
+        <v>-0.0685774226470377</v>
       </c>
       <c r="F14">
-        <v>-1.7147683197208641</v>
+        <v>-0.08773183384580763</v>
       </c>
       <c r="G14">
-        <v>0.16227213655646369</v>
+        <v>0.03060650847171353</v>
       </c>
       <c r="H14">
-        <v>1.212087458664029E-3</v>
+        <v>0.004666188307965868</v>
       </c>
       <c r="I14">
-        <v>-7.5799374003534314E-2</v>
+        <v>-0.07579937400353431</v>
       </c>
       <c r="J14">
-        <v>1.0022161851292221E-2</v>
+        <v>0.1622721365564637</v>
       </c>
       <c r="K14">
-        <v>3.4817041008056937E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001212087458664029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-5.7752038152164689E-2</v>
+        <v>-0.0008022189349112408</v>
       </c>
       <c r="C15">
-        <v>-4.7334997995076122E-2</v>
+        <v>0.002694782094981227</v>
       </c>
       <c r="D15">
-        <v>0.11187779067380441</v>
+        <v>0.1118777906738044</v>
       </c>
       <c r="E15">
-        <v>-8.0221893491124081E-4</v>
+        <v>-0.04733499799507612</v>
       </c>
       <c r="F15">
-        <v>-1.7161297625504259</v>
+        <v>-0.05775203815216469</v>
       </c>
       <c r="G15">
-        <v>0.14145747491738089</v>
+        <v>0.0268452108543803</v>
       </c>
       <c r="H15">
-        <v>2.1209145607663008E-3</v>
+        <v>0.003304745478403792</v>
       </c>
       <c r="I15">
-        <v>-6.9841698067981905E-2</v>
+        <v>-0.06984169806798191</v>
       </c>
       <c r="J15">
-        <v>4.4420816759474929E-3</v>
+        <v>0.1414574749173809</v>
       </c>
       <c r="K15">
-        <v>3.4036371528861409E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002120914560766301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-5.4952590242150233E-2</v>
+        <v>-0.001610552268244575</v>
       </c>
       <c r="C16">
-        <v>-3.3326958398624207E-2</v>
+        <v>0.005892458165409429</v>
       </c>
       <c r="D16">
-        <v>0.12640869080936309</v>
+        <v>0.1264086908093631</v>
       </c>
       <c r="E16">
-        <v>-1.6105522682445749E-3</v>
+        <v>-0.03332695839862421</v>
       </c>
       <c r="F16">
-        <v>-1.7163388908142549</v>
+        <v>-0.05495259024215023</v>
       </c>
       <c r="G16">
-        <v>0.15027632754643611</v>
+        <v>0.01986836254929158</v>
       </c>
       <c r="H16">
-        <v>-2.1542064806361842E-3</v>
+        <v>0.003095617214575441</v>
       </c>
       <c r="I16">
-        <v>-6.256657287002243E-2</v>
+        <v>-0.06256657287002243</v>
       </c>
       <c r="J16">
-        <v>4.2029203339096627E-3</v>
+        <v>0.1502763275464361</v>
       </c>
       <c r="K16">
-        <v>2.1837579242621089E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002154206480636184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>-4.7002288447752311E-2</v>
+        <v>-0.0006355522682445734</v>
       </c>
       <c r="C17">
-        <v>-2.571214117168363E-2</v>
+        <v>0.009754261222060499</v>
       </c>
       <c r="D17">
         <v>0.1260942364739881</v>
       </c>
       <c r="E17">
-        <v>-6.3555226824457342E-4</v>
+        <v>-0.02571214117168363</v>
       </c>
       <c r="F17">
-        <v>-1.7143822709254419</v>
+        <v>-0.04700228844775231</v>
       </c>
       <c r="G17">
+        <v>0.03531270146566523</v>
+      </c>
+      <c r="H17">
+        <v>0.005052237103388235</v>
+      </c>
+      <c r="I17">
+        <v>-0.05665087035422056</v>
+      </c>
+      <c r="J17">
         <v>0.1748419937364174</v>
       </c>
-      <c r="H17">
-        <v>4.8384915041954132E-3</v>
-      </c>
-      <c r="I17">
-        <v>-5.6650870354220562E-2</v>
-      </c>
-      <c r="J17">
-        <v>1.144300330799829E-2</v>
-      </c>
       <c r="K17">
-        <v>4.1694787515516363E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.004838491504195413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>-1.3683345720991979E-2</v>
+        <v>0.0006311143984220943</v>
       </c>
       <c r="C18">
-        <v>5.0734749311471816E-3</v>
+        <v>0.006889816577390327</v>
       </c>
       <c r="D18">
-        <v>0.13275478359772031</v>
+        <v>0.1327547835977203</v>
       </c>
       <c r="E18">
-        <v>6.3111439842209426E-4</v>
+        <v>0.005073474931147182</v>
       </c>
       <c r="F18">
-        <v>-1.715706272397441</v>
+        <v>-0.01368334572099198</v>
       </c>
       <c r="G18">
-        <v>0.19923965034108981</v>
+        <v>0.05956269484223586</v>
       </c>
       <c r="H18">
-        <v>2.2098969404078009E-3</v>
+        <v>0.003728235631388943</v>
       </c>
       <c r="I18">
-        <v>-5.6376522331439638E-2</v>
+        <v>-0.05637652233143964</v>
       </c>
       <c r="J18">
-        <v>6.077948410919562E-3</v>
+        <v>0.1992396503410898</v>
       </c>
       <c r="K18">
-        <v>6.3073682054493707E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002209896940407801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>8.7829951363619513E-4</v>
+        <v>0.0008894477317554252</v>
       </c>
       <c r="C19">
-        <v>-9.9723793347905598E-3</v>
+        <v>0.02477375593175027</v>
       </c>
       <c r="D19">
-        <v>0.13499499219028799</v>
+        <v>0.134994992190288</v>
       </c>
       <c r="E19">
-        <v>8.8944773175542516E-4</v>
+        <v>-0.00997237933479056</v>
       </c>
       <c r="F19">
-        <v>-1.7148810729509441</v>
+        <v>0.0008782995136361951</v>
       </c>
       <c r="G19">
+        <v>0.06201879164613544</v>
+      </c>
+      <c r="H19">
+        <v>0.004553435077885892</v>
+      </c>
+      <c r="I19">
+        <v>-0.04817425688323151</v>
+      </c>
+      <c r="J19">
         <v>0.2060268349398795</v>
       </c>
-      <c r="H19">
-        <v>2.3019605710427661E-3</v>
-      </c>
-      <c r="I19">
-        <v>-4.8174256883231507E-2</v>
-      </c>
-      <c r="J19">
-        <v>2.478935988531249E-2</v>
-      </c>
       <c r="K19">
-        <v>6.5539431088541211E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002301960571042766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>8.8059557453195117E-3</v>
+        <v>0.002956114398422091</v>
       </c>
       <c r="C20">
-        <v>-2.244196221151196E-2</v>
+        <v>0.01056486623800604</v>
       </c>
       <c r="D20">
-        <v>0.13530826769877449</v>
+        <v>0.1353082676987745</v>
       </c>
       <c r="E20">
-        <v>2.956114398422091E-3</v>
+        <v>-0.02244196221151196</v>
       </c>
       <c r="F20">
-        <v>-1.7140979550079281</v>
+        <v>0.008805955745319512</v>
       </c>
       <c r="G20">
-        <v>0.22876134137626189</v>
+        <v>0.05854825514638284</v>
       </c>
       <c r="H20">
-        <v>1.2123610017904019E-3</v>
+        <v>0.005336553020902557</v>
       </c>
       <c r="I20">
-        <v>-4.9840955827552318E-2</v>
+        <v>-0.04984095582755232</v>
       </c>
       <c r="J20">
-        <v>9.8127158352373373E-3</v>
+        <v>0.2287613413762619</v>
       </c>
       <c r="K20">
-        <v>6.4127713290067834E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001212361001790402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>6.6608039998822047E-3</v>
+        <v>0.003781114398422094</v>
       </c>
       <c r="C21">
-        <v>-0.10313056564941719</v>
+        <v>0.0153484102690156</v>
       </c>
       <c r="D21">
-        <v>0.13830549864684369</v>
+        <v>0.1383054986468437</v>
       </c>
       <c r="E21">
-        <v>3.7811143984220938E-3</v>
+        <v>-0.1031305656494172</v>
       </c>
       <c r="F21">
-        <v>-1.7153816114439231</v>
+        <v>0.006660803999882205</v>
       </c>
       <c r="G21">
-        <v>0.21790722448593769</v>
+        <v>0.06179367640056654</v>
       </c>
       <c r="H21">
-        <v>1.229176015870198E-3</v>
+        <v>0.004052896584907073</v>
       </c>
       <c r="I21">
-        <v>-5.2720671974342707E-2</v>
+        <v>-0.05272067197434271</v>
       </c>
       <c r="J21">
-        <v>1.6131768578908291E-2</v>
+        <v>0.2179072244859377</v>
       </c>
       <c r="K21">
-        <v>6.7354648034781417E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001229176015870198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-8.0262420741732572E-3</v>
+        <v>0.003422781065088759</v>
       </c>
       <c r="C22">
-        <v>-0.1062295066469767</v>
+        <v>0.0124765248396839</v>
       </c>
       <c r="D22">
         <v>0.1391227034853921</v>
       </c>
       <c r="E22">
-        <v>3.4227810650887592E-3</v>
+        <v>-0.1062295066469767</v>
       </c>
       <c r="F22">
-        <v>-1.7186111072018939</v>
+        <v>-0.008026242074173257</v>
       </c>
       <c r="G22">
+        <v>0.044122596306573</v>
+      </c>
+      <c r="H22">
+        <v>0.0008234008269362488</v>
+      </c>
+      <c r="I22">
+        <v>-0.06271368458419868</v>
+      </c>
+      <c r="J22">
         <v>0.2066621523856664</v>
       </c>
-      <c r="H22">
-        <v>1.760338322890525E-3</v>
-      </c>
-      <c r="I22">
-        <v>-6.2713684584198681E-2</v>
-      </c>
-      <c r="J22">
-        <v>1.32217895333898E-2</v>
-      </c>
       <c r="K22">
-        <v>4.7652625244011697E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001760338322890525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-1.503838981498011E-2</v>
+        <v>0.002089447731755427</v>
       </c>
       <c r="C23">
-        <v>-0.18055569802537799</v>
+        <v>0.01050324348686685</v>
       </c>
       <c r="D23">
         <v>0.138447702867734</v>
       </c>
       <c r="E23">
-        <v>2.089447731755427E-3</v>
+        <v>-0.180555698025378</v>
       </c>
       <c r="F23">
-        <v>-1.7167791208168359</v>
+        <v>-0.01503838981498011</v>
       </c>
       <c r="G23">
-        <v>0.19599548651885451</v>
+        <v>0.06302142363888896</v>
       </c>
       <c r="H23">
-        <v>5.4180519494994644E-3</v>
+        <v>0.002655387211994242</v>
       </c>
       <c r="I23">
-        <v>-8.0636829788201414E-2</v>
+        <v>-0.08063682978820141</v>
       </c>
       <c r="J23">
-        <v>1.050321743394177E-2</v>
+        <v>0.1959954865188545</v>
       </c>
       <c r="K23">
-        <v>6.7889634594203274E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.005418051949499464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-4.2562303152974823E-2</v>
+        <v>0.001214447731755426</v>
       </c>
       <c r="C24">
+        <v>0.01770682710185926</v>
+      </c>
+      <c r="D24">
+        <v>0.1414330977400358</v>
+      </c>
+      <c r="E24">
         <v>-0.1340557716654045</v>
       </c>
-      <c r="D24">
-        <v>0.14143309774003579</v>
-      </c>
-      <c r="E24">
-        <v>1.214447731755426E-3</v>
-      </c>
       <c r="F24">
-        <v>-1.7150246148316</v>
+        <v>-0.04256230315297482</v>
       </c>
       <c r="G24">
-        <v>0.19564300568362031</v>
+        <v>0.03160966015172617</v>
       </c>
       <c r="H24">
-        <v>-4.387538380722639E-3</v>
+        <v>0.004409893197230652</v>
       </c>
       <c r="I24">
-        <v>-8.896735650875609E-2</v>
+        <v>-0.08896735650875609</v>
       </c>
       <c r="J24">
-        <v>1.631419689228851E-2</v>
+        <v>0.1956430056836203</v>
       </c>
       <c r="K24">
-        <v>3.7170631785941162E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004387538380722639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-3.9846801298101801E-2</v>
+        <v>-0.001218885601577905</v>
       </c>
       <c r="C25">
-        <v>-3.9680726828792423E-2</v>
+        <v>0.005359672157332827</v>
       </c>
       <c r="D25">
         <v>0.1327571714956477</v>
       </c>
       <c r="E25">
-        <v>-1.218885601577905E-3</v>
+        <v>-0.03968072682879242</v>
       </c>
       <c r="F25">
-        <v>-1.717182127250243</v>
+        <v>-0.0398468012981018</v>
       </c>
       <c r="G25">
-        <v>0.15146884770494479</v>
+        <v>0.03040756937663602</v>
       </c>
       <c r="H25">
-        <v>5.4940563215061852E-3</v>
+        <v>0.00225238077858717</v>
       </c>
       <c r="I25">
         <v>-0.108639468805781</v>
       </c>
       <c r="J25">
-        <v>5.3866526104596607E-3</v>
+        <v>0.1514688477049448</v>
       </c>
       <c r="K25">
-        <v>3.1279200647464811E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.005494056321506185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-4.6948942623238087E-2</v>
+        <v>-0.005002218934911241</v>
       </c>
       <c r="C26">
-        <v>6.5617724499080774E-3</v>
+        <v>0.01178472335711714</v>
       </c>
       <c r="D26">
-        <v>0.14622405866819221</v>
+        <v>0.1462240586681922</v>
       </c>
       <c r="E26">
-        <v>-5.0022189349112414E-3</v>
+        <v>0.006561772449908077</v>
       </c>
       <c r="F26">
-        <v>-1.7126430996158539</v>
+        <v>-0.04694894262323809</v>
       </c>
       <c r="G26">
-        <v>0.1553214443867903</v>
+        <v>0.03985164293938714</v>
       </c>
       <c r="H26">
-        <v>1.2274989477040811E-3</v>
+        <v>0.006791408412976463</v>
       </c>
       <c r="I26">
         <v>-0.1025797779496531</v>
       </c>
       <c r="J26">
-        <v>1.31500432282937E-2</v>
+        <v>0.1553214443867903</v>
       </c>
       <c r="K26">
-        <v>4.2754130815714997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001227498947704081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>-2.8806719347470769E-2</v>
+        <v>-0.00397721893491124</v>
       </c>
       <c r="C27">
-        <v>9.7089238581091308E-2</v>
+        <v>0.01322516231070673</v>
       </c>
       <c r="D27">
         <v>0.1497156866559273</v>
       </c>
       <c r="E27">
-        <v>-3.9772189349112398E-3</v>
+        <v>0.09708923858109131</v>
       </c>
       <c r="F27">
-        <v>-1.7148150829607161</v>
+        <v>-0.02880671934747077</v>
       </c>
       <c r="G27">
-        <v>0.16399561591601139</v>
+        <v>0.05356999320809186</v>
       </c>
       <c r="H27">
-        <v>2.9584789014433558E-3</v>
+        <v>0.004619425068114557</v>
       </c>
       <c r="I27">
-        <v>-0.10139669471061021</v>
+        <v>-0.1013966947106102</v>
       </c>
       <c r="J27">
-        <v>1.2573877276565211E-2</v>
+        <v>0.1639956159160114</v>
       </c>
       <c r="K27">
-        <v>5.5867869758102318E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002958478901443356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-2.0371929818966471E-2</v>
+        <v>-0.002077218934911239</v>
       </c>
       <c r="C28">
-        <v>0.13956238369806681</v>
+        <v>0.009461033908423153</v>
       </c>
       <c r="D28">
-        <v>0.15212392045685699</v>
+        <v>0.152123920456857</v>
       </c>
       <c r="E28">
-        <v>-2.0772189349112392E-3</v>
+        <v>0.1395623836980668</v>
       </c>
       <c r="F28">
-        <v>-1.715063344167139</v>
+        <v>-0.02037192981896647</v>
       </c>
       <c r="G28">
-        <v>0.1623136369311107</v>
+        <v>0.05666658698420379</v>
       </c>
       <c r="H28">
-        <v>4.3074831008733071E-4</v>
+        <v>0.00437116386169093</v>
       </c>
       <c r="I28">
         <v>-0.1063783804386529</v>
       </c>
       <c r="J28">
-        <v>1.011418968466447E-2</v>
+        <v>0.1623136369311107</v>
       </c>
       <c r="K28">
-        <v>6.3389683656430273E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0004307483100873307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>4.9528985293324987E-3</v>
+        <v>-0.004027218934911241</v>
       </c>
       <c r="C29">
+        <v>0.003403574133120677</v>
+      </c>
+      <c r="D29">
+        <v>0.1630209050433273</v>
+      </c>
+      <c r="E29">
         <v>0.1717673935921544</v>
       </c>
-      <c r="D29">
-        <v>0.16302090504332731</v>
-      </c>
-      <c r="E29">
-        <v>-4.0272189349112412E-3</v>
-      </c>
       <c r="F29">
-        <v>-1.718003019618547</v>
+        <v>0.004952898529332499</v>
       </c>
       <c r="G29">
-        <v>0.17830030982581929</v>
+        <v>0.06499966365099474</v>
       </c>
       <c r="H29">
-        <v>-4.9639686882839099E-3</v>
+        <v>0.00143148841028321</v>
       </c>
       <c r="I29">
         <v>-0.1018998176840671</v>
       </c>
       <c r="J29">
-        <v>2.1528931404935919E-3</v>
+        <v>0.1783003098258193</v>
       </c>
       <c r="K29">
-        <v>6.7345103946341967E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00496396868828391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-1.7757874788380468E-2</v>
+        <v>-0.006010552268244573</v>
       </c>
       <c r="C30">
-        <v>0.22509963041298331</v>
+        <v>0.01060200847565599</v>
       </c>
       <c r="D30">
-        <v>0.16490874528008301</v>
+        <v>0.164908745280083</v>
       </c>
       <c r="E30">
-        <v>-6.010552268244573E-3</v>
+        <v>0.2250996304129833</v>
       </c>
       <c r="F30">
-        <v>-1.6987782434486609</v>
+        <v>-0.01775787478838047</v>
       </c>
       <c r="G30">
-        <v>0.19992184419300599</v>
+        <v>0.07123130764275099</v>
       </c>
       <c r="H30">
-        <v>3.0993640622542559E-3</v>
+        <v>0.02065626458016948</v>
       </c>
       <c r="I30">
-        <v>-9.4187365400156153E-2</v>
+        <v>-0.09418736540015615</v>
       </c>
       <c r="J30">
-        <v>1.124634555272795E-2</v>
+        <v>0.199921844193006</v>
       </c>
       <c r="K30">
-        <v>7.5441840179094388E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.003099364062254256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-2.318218339909851E-2</v>
+        <v>-0.005177218934911241</v>
       </c>
       <c r="C31">
+        <v>0.004099900518059339</v>
+      </c>
+      <c r="D31">
+        <v>0.1783799593678062</v>
+      </c>
+      <c r="E31">
         <v>0.2392089815291891</v>
       </c>
-      <c r="D31">
-        <v>0.17837995936780621</v>
-      </c>
-      <c r="E31">
-        <v>-5.1772189349112412E-3</v>
-      </c>
       <c r="F31">
-        <v>-1.7176917619937591</v>
+        <v>-0.02318218339909851</v>
       </c>
       <c r="G31">
+        <v>0.07282135257985123</v>
+      </c>
+      <c r="H31">
+        <v>0.001742746035071107</v>
+      </c>
+      <c r="I31">
+        <v>-0.08383088988324205</v>
+      </c>
+      <c r="J31">
         <v>0.2112567147726416</v>
       </c>
-      <c r="H31">
-        <v>-4.6420536464420407E-3</v>
-      </c>
-      <c r="I31">
-        <v>-8.3830889883242055E-2</v>
-      </c>
-      <c r="J31">
-        <v>3.509627446119587E-3</v>
-      </c>
       <c r="K31">
-        <v>7.8848416042592628E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004642053646442041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-1.5795303384549531E-2</v>
+        <v>-0.004052218934911242</v>
       </c>
       <c r="C32">
-        <v>0.23634634276038999</v>
+        <v>-0.002113874487652514</v>
       </c>
       <c r="D32">
-        <v>0.18831421701804191</v>
+        <v>0.1883142170180419</v>
       </c>
       <c r="E32">
-        <v>-4.052218934911242E-3</v>
+        <v>0.23634634276039</v>
       </c>
       <c r="F32">
-        <v>-1.717858699656285</v>
+        <v>-0.01579530338454953</v>
       </c>
       <c r="G32">
-        <v>0.22121837761117291</v>
+        <v>0.08435119044522332</v>
       </c>
       <c r="H32">
-        <v>-2.6423871484185179E-3</v>
+        <v>0.001575808372545151</v>
       </c>
       <c r="I32">
-        <v>-8.0385153071655058E-2</v>
+        <v>-0.08038515307165506</v>
       </c>
       <c r="J32">
-        <v>-2.0928138208330528E-3</v>
+        <v>0.2212183776111729</v>
       </c>
       <c r="K32">
-        <v>8.7966307661802912E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002642387148418518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-3.1377469621074461E-2</v>
+        <v>-0.002443885601577907</v>
       </c>
       <c r="C33">
-        <v>0.26676655792866022</v>
+        <v>0.01315364677333978</v>
       </c>
       <c r="D33">
-        <v>0.20656593484374991</v>
+        <v>0.2065659348437499</v>
       </c>
       <c r="E33">
-        <v>-2.4438856015779071E-3</v>
+        <v>0.2667665579286602</v>
       </c>
       <c r="F33">
-        <v>-1.713832040364961</v>
+        <v>-0.03137746962107446</v>
       </c>
       <c r="G33">
-        <v>0.26692215439310368</v>
+        <v>0.1135450643325915</v>
       </c>
       <c r="H33">
-        <v>-3.233608861822607E-3</v>
+        <v>0.005602467663869437</v>
       </c>
       <c r="I33">
-        <v>-6.9760078704958595E-2</v>
+        <v>-0.06976007870495859</v>
       </c>
       <c r="J33">
-        <v>1.3769671039145819E-2</v>
+        <v>0.2669221543931037</v>
       </c>
       <c r="K33">
-        <v>0.1171807190146433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003233608861822607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-1.920692253323707E-2</v>
+        <v>-0.0003522189349112401</v>
       </c>
       <c r="C34">
+        <v>0.008563963679435491</v>
+      </c>
+      <c r="D34">
+        <v>0.2193279792832108</v>
+      </c>
+      <c r="E34">
         <v>0.2946477622969903</v>
       </c>
-      <c r="D34">
-        <v>0.21932797928321079</v>
-      </c>
-      <c r="E34">
-        <v>-3.5221893491124012E-4</v>
-      </c>
       <c r="F34">
-        <v>-1.7165818719834931</v>
+        <v>-0.01920692253323707</v>
       </c>
       <c r="G34">
-        <v>0.30791463696527011</v>
+        <v>0.1135221408794957</v>
       </c>
       <c r="H34">
-        <v>-3.3774566236433549E-3</v>
+        <v>0.002852636045337286</v>
       </c>
       <c r="I34">
-        <v>-6.0070402644218479E-2</v>
+        <v>-0.06007040264421848</v>
       </c>
       <c r="J34">
-        <v>8.0050200733830928E-3</v>
+        <v>0.3079146369652701</v>
       </c>
       <c r="K34">
-        <v>0.114871441134807</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003377456623643355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>1.67085563102039E-2</v>
+        <v>0.001906114398422096</v>
       </c>
       <c r="C35">
-        <v>0.23713231330814469</v>
+        <v>-0.006573718043900025</v>
       </c>
       <c r="D35">
-        <v>0.21362496441684489</v>
+        <v>0.2136249644168449</v>
       </c>
       <c r="E35">
-        <v>1.9061143984220961E-3</v>
+        <v>0.2371323133081447</v>
       </c>
       <c r="F35">
-        <v>-1.7167783069945519</v>
+        <v>0.0167085563102039</v>
       </c>
       <c r="G35">
-        <v>0.34256413030864857</v>
+        <v>0.1360674863798776</v>
       </c>
       <c r="H35">
-        <v>2.0346570562054852E-3</v>
+        <v>0.002656201034277805</v>
       </c>
       <c r="I35">
-        <v>-5.6955981249999343E-2</v>
+        <v>-0.05695598124999934</v>
       </c>
       <c r="J35">
-        <v>-5.9835665307234193E-3</v>
+        <v>0.3425641303086486</v>
       </c>
       <c r="K35">
-        <v>0.1375117654233308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002034657056205485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>3.092447899041369E-2</v>
+        <v>0.006206114398422091</v>
       </c>
       <c r="C36">
-        <v>0.18895363041555241</v>
+        <v>0.0002119658468706966</v>
       </c>
       <c r="D36">
-        <v>0.21201765871306399</v>
+        <v>0.212017658713064</v>
       </c>
       <c r="E36">
-        <v>6.2061143984220909E-3</v>
+        <v>0.1889536304155524</v>
       </c>
       <c r="F36">
-        <v>-1.7145664644870819</v>
+        <v>0.03092447899041369</v>
       </c>
       <c r="G36">
-        <v>0.35416761472100072</v>
+        <v>0.1561681699529293</v>
       </c>
       <c r="H36">
-        <v>3.379847229984584E-3</v>
+        <v>0.004868043541748001</v>
       </c>
       <c r="I36">
-        <v>-5.8689702799478383E-2</v>
+        <v>-0.05868970279947838</v>
       </c>
       <c r="J36">
-        <v>7.9270120852191484E-4</v>
+        <v>0.3541676147210007</v>
       </c>
       <c r="K36">
-        <v>0.16037870248927269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.003379847229984584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37">
-        <v>3.3089227427132127E-2</v>
+        <v>0.004147781065088759</v>
       </c>
       <c r="C37">
-        <v>0.13482064311420319</v>
+        <v>0.006769397721857726</v>
       </c>
       <c r="D37">
         <v>0.2040109923314084</v>
       </c>
       <c r="E37">
-        <v>4.1477810650887587E-3</v>
+        <v>0.1348206431142032</v>
       </c>
       <c r="F37">
-        <v>-1.7156102089989249</v>
+        <v>0.03308922742713213</v>
       </c>
       <c r="G37">
+        <v>0.1491110854775711</v>
+      </c>
+      <c r="H37">
+        <v>0.003824299029905253</v>
+      </c>
+      <c r="I37">
+        <v>-0.05542134855360947</v>
+      </c>
+      <c r="J37">
         <v>0.3569374014129103</v>
       </c>
-      <c r="H37">
-        <v>1.384148499553323E-2</v>
-      </c>
-      <c r="I37">
-        <v>-5.5421348553609473E-2</v>
-      </c>
-      <c r="J37">
-        <v>5.6644689756303193E-3</v>
-      </c>
       <c r="K37">
-        <v>0.15174142279439681</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01384148499553323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>1.508640307204537E-2</v>
+        <v>0.004439447731755428</v>
       </c>
       <c r="C38">
-        <v>5.3686420387246692E-2</v>
+        <v>-0.0006638183994278311</v>
       </c>
       <c r="D38">
-        <v>0.19023967339011699</v>
+        <v>0.190239673390117</v>
       </c>
       <c r="E38">
-        <v>4.439447731755428E-3</v>
+        <v>0.05368642038724669</v>
       </c>
       <c r="F38">
-        <v>-1.717388409333789</v>
+        <v>0.01508640307204537</v>
       </c>
       <c r="G38">
-        <v>0.35061860084500918</v>
+        <v>0.148713061830357</v>
       </c>
       <c r="H38">
-        <v>1.2101055764331689E-2</v>
+        <v>0.002046098695041387</v>
       </c>
       <c r="I38">
-        <v>-5.9703107852807857E-2</v>
+        <v>-0.05970310785280786</v>
       </c>
       <c r="J38">
-        <v>4.5648650260120271E-4</v>
+        <v>0.3506186008450092</v>
       </c>
       <c r="K38">
-        <v>0.1544687916867668</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01210105576433169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-4.7707515290729384E-3</v>
+        <v>0.005781114398422096</v>
       </c>
       <c r="C39">
-        <v>3.8703071836376779E-3</v>
+        <v>0.006811192920205964</v>
       </c>
       <c r="D39">
-        <v>0.18915616223782589</v>
+        <v>0.1891561622378259</v>
       </c>
       <c r="E39">
-        <v>5.7811143984220961E-3</v>
+        <v>0.003870307183637678</v>
       </c>
       <c r="F39">
-        <v>-1.707635639329268</v>
+        <v>-0.004770751529072938</v>
       </c>
       <c r="G39">
-        <v>0.34342675768272629</v>
+        <v>0.1333187662001977</v>
       </c>
       <c r="H39">
-        <v>2.667211247564211E-2</v>
+        <v>0.0117988686995624</v>
       </c>
       <c r="I39">
-        <v>-7.0972104990545848E-2</v>
+        <v>-0.07097210499054585</v>
       </c>
       <c r="J39">
-        <v>6.8170170574416286E-3</v>
+        <v>0.3434267576827263</v>
       </c>
       <c r="K39">
-        <v>0.1385388899378934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.02667211247564211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-4.1314602386691428E-2</v>
+        <v>0.00587278106508876</v>
       </c>
       <c r="C40">
-        <v>-3.4729401009439442E-2</v>
+        <v>0.01861534414607505</v>
       </c>
       <c r="D40">
         <v>0.1886227744701223</v>
       </c>
       <c r="E40">
-        <v>5.8727810650887604E-3</v>
+        <v>-0.03472940100943944</v>
       </c>
       <c r="F40">
-        <v>-1.7074127818918641</v>
+        <v>-0.04131460238669143</v>
       </c>
       <c r="G40">
-        <v>0.32661971498873837</v>
+        <v>0.1277928424727216</v>
       </c>
       <c r="H40">
-        <v>2.1333817289003361E-2</v>
+        <v>0.01202172613696609</v>
       </c>
       <c r="I40">
-        <v>-6.994313178968703E-2</v>
+        <v>-0.06994313178968703</v>
       </c>
       <c r="J40">
-        <v>1.7567456541680449E-2</v>
+        <v>0.3266197149887384</v>
       </c>
       <c r="K40">
-        <v>0.1310176676843057</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.02133381728900336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-6.7488379956304551E-2</v>
+        <v>0.003797781065088759</v>
       </c>
       <c r="C41">
-        <v>-0.18061305538034311</v>
+        <v>0.0116288538566183</v>
       </c>
       <c r="D41">
-        <v>0.16906952065854949</v>
+        <v>0.1690695206585495</v>
       </c>
       <c r="E41">
-        <v>3.7977810650887591E-3</v>
+        <v>-0.1806130553803431</v>
       </c>
       <c r="F41">
-        <v>-1.710849550045036</v>
+        <v>-0.06748837995630455</v>
       </c>
       <c r="G41">
-        <v>0.29352297648408138</v>
+        <v>0.1225376127910494</v>
       </c>
       <c r="H41">
-        <v>2.0456275555478642E-2</v>
+        <v>0.008584957983794583</v>
       </c>
       <c r="I41">
-        <v>-9.1767210239693586E-2</v>
+        <v>-0.09176721023969359</v>
       </c>
       <c r="J41">
-        <v>1.216842952769635E-2</v>
+        <v>0.2935229764840814</v>
       </c>
       <c r="K41">
-        <v>0.1272287990256635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.02045627555547864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42">
+        <v>-0.00022721893491124</v>
+      </c>
+      <c r="C42">
+        <v>0.008112119893204626</v>
+      </c>
+      <c r="D42">
+        <v>0.1727419175571683</v>
+      </c>
+      <c r="E42">
+        <v>-0.2494906698084307</v>
+      </c>
+      <c r="F42">
         <v>-0.1470231589960968</v>
       </c>
-      <c r="C42">
-        <v>-0.24949066980843071</v>
-      </c>
-      <c r="D42">
-        <v>0.17274191755716831</v>
-      </c>
-      <c r="E42">
-        <v>-2.2721893491124001E-4</v>
-      </c>
-      <c r="F42">
-        <v>-1.719118293074523</v>
-      </c>
       <c r="G42">
-        <v>0.2253510737561282</v>
+        <v>0.1279416113167959</v>
       </c>
       <c r="H42">
-        <v>2.3205274671376178E-2</v>
+        <v>0.0003162149543075917</v>
       </c>
       <c r="I42">
         <v>-0.1268446715321585</v>
       </c>
       <c r="J42">
-        <v>8.6298579271136683E-3</v>
+        <v>0.2253510737561282</v>
       </c>
       <c r="K42">
-        <v>0.13215214385313931</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.02320527467137618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.19521741349407179</v>
+        <v>-0.001118885601577907</v>
       </c>
       <c r="C43">
-        <v>-0.23294150566315791</v>
+        <v>0.006761589093490925</v>
       </c>
       <c r="D43">
-        <v>0.18416646642001039</v>
+        <v>0.1841664664200104</v>
       </c>
       <c r="E43">
-        <v>-1.1188856015779071E-3</v>
+        <v>-0.2329415056631579</v>
       </c>
       <c r="F43">
-        <v>-1.7192508001710931</v>
+        <v>-0.1952174134940718</v>
       </c>
       <c r="G43">
-        <v>0.19426105605390021</v>
+        <v>0.126182728360723</v>
       </c>
       <c r="H43">
-        <v>6.4211503026840363E-3</v>
+        <v>0.0001837078577370584</v>
       </c>
       <c r="I43">
-        <v>-0.13227453621688001</v>
+        <v>-0.13227453621688</v>
       </c>
       <c r="J43">
-        <v>6.768277225779426E-3</v>
+        <v>0.1942610560539002</v>
       </c>
       <c r="K43">
-        <v>0.13176218650440821</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.006421150302684036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44">
+        <v>0.001222781065088762</v>
+      </c>
+      <c r="C44">
+        <v>-0.001828453234740981</v>
+      </c>
+      <c r="D44">
+        <v>0.1926049654042279</v>
+      </c>
+      <c r="E44">
+        <v>-0.171464536393489</v>
+      </c>
+      <c r="F44">
         <v>-0.19392647796783</v>
       </c>
-      <c r="C44">
-        <v>-0.17146453639348899</v>
-      </c>
-      <c r="D44">
-        <v>0.19260496540422789</v>
-      </c>
-      <c r="E44">
-        <v>1.2227810650887619E-3</v>
-      </c>
-      <c r="F44">
-        <v>-1.714469740857709</v>
-      </c>
       <c r="G44">
-        <v>0.19777546925509609</v>
+        <v>0.118828124841986</v>
       </c>
       <c r="H44">
-        <v>7.314520434264565E-3</v>
+        <v>0.004964767171121631</v>
       </c>
       <c r="I44">
         <v>-0.1164141391634272</v>
       </c>
       <c r="J44">
-        <v>-2.3060675402527681E-3</v>
+        <v>0.1977754692550961</v>
       </c>
       <c r="K44">
-        <v>0.1243952029175804</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.007314520434264565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.17827355086147639</v>
+        <v>-0.0005355522682445706</v>
       </c>
       <c r="C45">
+        <v>-0.005310283411889851</v>
+      </c>
+      <c r="D45">
+        <v>0.198041652819736</v>
+      </c>
+      <c r="E45">
         <v>-0.1335165015845918</v>
       </c>
-      <c r="D45">
-        <v>0.19804165281973601</v>
-      </c>
-      <c r="E45">
-        <v>-5.3555226824457056E-4</v>
-      </c>
       <c r="F45">
-        <v>-1.71404036077655</v>
+        <v>-0.1782735508614764</v>
       </c>
       <c r="G45">
-        <v>0.2019765024800888</v>
+        <v>0.1309778737599834</v>
       </c>
       <c r="H45">
-        <v>5.5065122599282142E-3</v>
+        <v>0.00539414725228019</v>
       </c>
       <c r="I45">
         <v>-0.1036985887250159</v>
       </c>
       <c r="J45">
-        <v>-5.2946794583276363E-3</v>
+        <v>0.2019765024800888</v>
       </c>
       <c r="K45">
-        <v>0.13606907566192039</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.005506512259928214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.15593707404684901</v>
+        <v>-0.002310552268244573</v>
       </c>
       <c r="C46">
-        <v>-4.0882981302317489E-2</v>
+        <v>0.001396233184950222</v>
       </c>
       <c r="D46">
-        <v>0.21298242946837001</v>
+        <v>0.21298242946837</v>
       </c>
       <c r="E46">
-        <v>-2.3105522682445728E-3</v>
+        <v>-0.04088298130231749</v>
       </c>
       <c r="F46">
-        <v>-1.7122841432290881</v>
+        <v>-0.155937074046849</v>
       </c>
       <c r="G46">
+        <v>0.1370022582932342</v>
+      </c>
+      <c r="H46">
+        <v>0.007150364799742103</v>
+      </c>
+      <c r="I46">
+        <v>-0.08798819869808971</v>
+      </c>
+      <c r="J46">
         <v>0.2155265193021689</v>
       </c>
-      <c r="H46">
-        <v>2.3122537214156969E-3</v>
-      </c>
-      <c r="I46">
-        <v>-8.7988198698089715E-2</v>
-      </c>
-      <c r="J46">
-        <v>1.891568498156068E-3</v>
-      </c>
       <c r="K46">
-        <v>0.13904594274448731</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002312253721415697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.16816486185500959</v>
+        <v>-0.001710552268244573</v>
       </c>
       <c r="C47">
-        <v>-1.6708454980411069E-2</v>
+        <v>0.01067460253589994</v>
       </c>
       <c r="D47">
-        <v>0.21735602062321749</v>
+        <v>0.2173560206232175</v>
       </c>
       <c r="E47">
-        <v>-1.710552268244573E-3</v>
+        <v>-0.01670845498041107</v>
       </c>
       <c r="F47">
-        <v>-1.7146097086653409</v>
+        <v>-0.1681648618550096</v>
       </c>
       <c r="G47">
-        <v>0.22284632846453969</v>
+        <v>0.1560443053386998</v>
       </c>
       <c r="H47">
-        <v>1.67986131849091E-3</v>
+        <v>0.004824799363488818</v>
       </c>
       <c r="I47">
-        <v>-9.1592469156908773E-2</v>
+        <v>-0.09159246915690877</v>
       </c>
       <c r="J47">
-        <v>1.021047512981808E-2</v>
+        <v>0.2228463284645397</v>
       </c>
       <c r="K47">
-        <v>0.1594141484602499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.00167986131849091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.18136406232839369</v>
+        <v>-0.00172721893491124</v>
       </c>
       <c r="C48">
-        <v>-3.8295597437818962E-2</v>
+        <v>0.006524850561753479</v>
       </c>
       <c r="D48">
-        <v>0.22293354246466279</v>
+        <v>0.2229335424646628</v>
       </c>
       <c r="E48">
-        <v>-1.72721893491124E-3</v>
+        <v>-0.03829559743781896</v>
       </c>
       <c r="F48">
-        <v>-1.7109453689995491</v>
+        <v>-0.1813640623283937</v>
       </c>
       <c r="G48">
+        <v>0.1706107663709482</v>
+      </c>
+      <c r="H48">
+        <v>0.008489139029281089</v>
+      </c>
+      <c r="I48">
+        <v>-0.08601031688942085</v>
+      </c>
+      <c r="J48">
         <v>0.2396482467438048</v>
       </c>
-      <c r="H48">
-        <v>5.2900210552792636E-3</v>
-      </c>
-      <c r="I48">
-        <v>-8.6010316889420846E-2</v>
-      </c>
-      <c r="J48">
-        <v>7.0016027826528132E-3</v>
-      </c>
       <c r="K48">
-        <v>0.17482129890729159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.005290021055279264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1696649444395617</v>
+        <v>-0.002918885601577909</v>
       </c>
       <c r="C49">
-        <v>7.7400335247807206E-2</v>
+        <v>0.005310554418955369</v>
       </c>
       <c r="D49">
         <v>0.2315611213969033</v>
       </c>
       <c r="E49">
-        <v>-2.918885601577909E-3</v>
+        <v>0.07740033524780721</v>
       </c>
       <c r="F49">
-        <v>-1.713247907828735</v>
+        <v>-0.1696649444395617</v>
       </c>
       <c r="G49">
-        <v>0.25481808859651262</v>
+        <v>0.1692341947814292</v>
       </c>
       <c r="H49">
-        <v>8.4402027237752749E-3</v>
+        <v>0.006186600200094683</v>
       </c>
       <c r="I49">
-        <v>-9.0449073479145436E-2</v>
+        <v>-0.09044907347914544</v>
       </c>
       <c r="J49">
-        <v>5.3186277133209087E-3</v>
+        <v>0.2548180885965126</v>
       </c>
       <c r="K49">
-        <v>0.17304304022661141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.008440202723775275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.16210584672278061</v>
+        <v>-0.00302721893491124</v>
       </c>
       <c r="C50">
-        <v>0.1025739285833369</v>
+        <v>0.003256410707871669</v>
       </c>
       <c r="D50">
         <v>0.2389732377012557</v>
       </c>
       <c r="E50">
-        <v>-3.0272189349112399E-3</v>
+        <v>0.1025739285833369</v>
       </c>
       <c r="F50">
-        <v>-1.7129176003956821</v>
+        <v>-0.1621058467227806</v>
       </c>
       <c r="G50">
-        <v>0.28853557760074899</v>
+        <v>0.1902703673309889</v>
       </c>
       <c r="H50">
-        <v>5.3394611216259274E-3</v>
+        <v>0.006516907633148305</v>
       </c>
       <c r="I50">
-        <v>-8.6129216033747458E-2</v>
+        <v>-0.08612921603374746</v>
       </c>
       <c r="J50">
-        <v>2.3710698259723361E-3</v>
+        <v>0.288535577600749</v>
       </c>
       <c r="K50">
-        <v>0.1952557933582568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.005339461121625927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.1161084444509172</v>
+        <v>-0.002502218934911241</v>
       </c>
       <c r="C51">
-        <v>0.20640962900932361</v>
+        <v>-0.005361135609986713</v>
       </c>
       <c r="D51">
         <v>0.2396922705909845</v>
       </c>
       <c r="E51">
-        <v>-2.5022189349112409E-3</v>
+        <v>0.2064096290093236</v>
       </c>
       <c r="F51">
-        <v>-1.7113745847272519</v>
+        <v>-0.1161084444509172</v>
       </c>
       <c r="G51">
-        <v>0.31207930269251788</v>
+        <v>0.2082066255211679</v>
       </c>
       <c r="H51">
-        <v>7.2217605027286632E-3</v>
+        <v>0.008059923301578264</v>
       </c>
       <c r="I51">
-        <v>-6.6651045417543742E-2</v>
+        <v>-0.06665104541754374</v>
       </c>
       <c r="J51">
-        <v>-4.4536611899545081E-3</v>
+        <v>0.3120793026925179</v>
       </c>
       <c r="K51">
-        <v>0.21391416432510449</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.007221760502728663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B52">
+        <v>-0.0008605522682445747</v>
+      </c>
+      <c r="C52">
+        <v>-0.000983425412586416</v>
+      </c>
+      <c r="D52">
+        <v>0.2442878807663718</v>
+      </c>
+      <c r="E52">
+        <v>0.1982518766243837</v>
+      </c>
+      <c r="F52">
         <v>-0.1183739448635322</v>
       </c>
-      <c r="C52">
-        <v>0.1982518766243837</v>
-      </c>
-      <c r="D52">
-        <v>0.24428788076637181</v>
-      </c>
-      <c r="E52">
-        <v>-8.6055226824457466E-4</v>
-      </c>
-      <c r="F52">
-        <v>-1.7153816114439231</v>
-      </c>
       <c r="G52">
-        <v>0.32835494157873413</v>
+        <v>0.213482949746423</v>
       </c>
       <c r="H52">
-        <v>4.1460288847678436E-3</v>
+        <v>0.004052896584907295</v>
       </c>
       <c r="I52">
-        <v>-6.0762389126421727E-2</v>
+        <v>-0.06076238912642173</v>
       </c>
       <c r="J52">
-        <v>-1.852602433657938E-3</v>
+        <v>0.3283549415787341</v>
       </c>
       <c r="K52">
-        <v>0.21769348228276639</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.004146028884767844</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B53">
+        <v>0.0006727810650887581</v>
+      </c>
+      <c r="C53">
+        <v>0.003695667693649516</v>
+      </c>
+      <c r="D53">
+        <v>0.254748051391843</v>
+      </c>
+      <c r="E53">
+        <v>0.1806157725008202</v>
+      </c>
+      <c r="F53">
         <v>-0.1024920279639792</v>
       </c>
-      <c r="C53">
-        <v>0.1806157725008202</v>
-      </c>
-      <c r="D53">
-        <v>0.25474805139184298</v>
-      </c>
-      <c r="E53">
-        <v>6.7278106508875807E-4</v>
-      </c>
-      <c r="F53">
-        <v>-1.7120262285744099</v>
-      </c>
       <c r="G53">
-        <v>0.35719668370800939</v>
+        <v>0.2526613612405235</v>
       </c>
       <c r="H53">
-        <v>8.8489475601240593E-3</v>
+        <v>0.007408279454420052</v>
       </c>
       <c r="I53">
-        <v>-5.1210188452224692E-2</v>
+        <v>-0.05121018845222469</v>
       </c>
       <c r="J53">
-        <v>4.5850667274441731E-3</v>
+        <v>0.3571966837080094</v>
       </c>
       <c r="K53">
-        <v>0.25617720809418831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.008848947560124059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B54">
+        <v>0.001381114398422095</v>
+      </c>
+      <c r="C54">
+        <v>0.007317030535595657</v>
+      </c>
+      <c r="D54">
+        <v>0.2561277290688779</v>
+      </c>
+      <c r="E54">
+        <v>0.1812927459362594</v>
+      </c>
+      <c r="F54">
         <v>-0.1226079737931705</v>
       </c>
-      <c r="C54">
-        <v>0.18129274593625941</v>
-      </c>
-      <c r="D54">
-        <v>0.25612772906887787</v>
-      </c>
-      <c r="E54">
-        <v>1.3811143984220949E-3</v>
-      </c>
-      <c r="F54">
-        <v>-1.711782753110479</v>
-      </c>
       <c r="G54">
-        <v>0.36257216060034198</v>
+        <v>0.2542241445678016</v>
       </c>
       <c r="H54">
-        <v>3.099484019333193E-3</v>
+        <v>0.007651754918351605</v>
       </c>
       <c r="I54">
-        <v>-5.8223955873286222E-2</v>
+        <v>-0.05822395587328622</v>
       </c>
       <c r="J54">
-        <v>6.8990771444085034E-3</v>
+        <v>0.362572160600342</v>
       </c>
       <c r="K54">
-        <v>0.25774951092454851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.003099484019333193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-3.2350914595247797E-2</v>
+        <v>0.001589447731755426</v>
       </c>
       <c r="C55">
-        <v>0.22374554600191041</v>
+        <v>0.01240194458663549</v>
       </c>
       <c r="D55">
-        <v>0.27291517559503697</v>
+        <v>0.272915175595037</v>
       </c>
       <c r="E55">
-        <v>1.5894477317554259E-3</v>
+        <v>0.2237455460019104</v>
       </c>
       <c r="F55">
-        <v>-1.7075466645499999</v>
+        <v>-0.0323509145952478</v>
       </c>
       <c r="G55">
-        <v>0.43924327261053803</v>
+        <v>0.2763819445593606</v>
       </c>
       <c r="H55">
-        <v>8.9850443606560079E-3</v>
+        <v>0.01188784347883002</v>
       </c>
       <c r="I55">
-        <v>-3.419485194939087E-2</v>
+        <v>-0.03419485194939087</v>
       </c>
       <c r="J55">
-        <v>1.2833262534960191E-2</v>
+        <v>0.439243272610538</v>
       </c>
       <c r="K55">
-        <v>0.27927582121095718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.008985044360656008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-1.3692733829067509E-2</v>
+        <v>0.003681114398422091</v>
       </c>
       <c r="C56">
-        <v>0.23294847352994991</v>
+        <v>0.009011189436682696</v>
       </c>
       <c r="D56">
-        <v>0.27269205729271873</v>
+        <v>0.2726920572927187</v>
       </c>
       <c r="E56">
-        <v>3.681114398422091E-3</v>
+        <v>0.2329484735299499</v>
       </c>
       <c r="F56">
-        <v>-1.712554759346316</v>
+        <v>-0.01369273382906751</v>
       </c>
       <c r="G56">
+        <v>0.2992811592694868</v>
+      </c>
+      <c r="H56">
+        <v>0.00687974868251443</v>
+      </c>
+      <c r="I56">
+        <v>-0.02734123956807233</v>
+      </c>
+      <c r="J56">
         <v>0.4695385532777534</v>
       </c>
-      <c r="H56">
-        <v>9.8438029752089869E-3</v>
-      </c>
-      <c r="I56">
-        <v>-2.7341239568072329E-2</v>
-      </c>
-      <c r="J56">
-        <v>8.6110793954819881E-3</v>
-      </c>
       <c r="K56">
-        <v>0.30286057786882048</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.009843802975208987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B57">
-        <v>-9.7263833427954915E-3</v>
+        <v>0.006822781065088759</v>
       </c>
       <c r="C57">
-        <v>0.22485665146241909</v>
+        <v>0.004208001342173948</v>
       </c>
       <c r="D57">
-        <v>0.27612304427084888</v>
+        <v>0.2761230442708489</v>
       </c>
       <c r="E57">
-        <v>6.822781065088759E-3</v>
+        <v>0.2248566514624191</v>
       </c>
       <c r="F57">
-        <v>-1.7090223111849741</v>
+        <v>-0.009726383342795492</v>
       </c>
       <c r="G57">
-        <v>0.49690356202652192</v>
+        <v>0.3102040445465013</v>
       </c>
       <c r="H57">
-        <v>1.1004456957233569E-2</v>
+        <v>0.01041219684385567</v>
       </c>
       <c r="I57">
-        <v>-2.1574921435127511E-2</v>
+        <v>-0.02157492143512751</v>
       </c>
       <c r="J57">
-        <v>4.6248089119501484E-3</v>
+        <v>0.4969035620265219</v>
       </c>
       <c r="K57">
-        <v>0.3134967247926157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01100445695723357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-2.9408939155059322E-2</v>
+        <v>0.008856114398422097</v>
       </c>
       <c r="C58">
+        <v>0.00713251507267668</v>
+      </c>
+      <c r="D58">
+        <v>0.2768545695969546</v>
+      </c>
+      <c r="E58">
         <v>0.1967029182390414</v>
       </c>
-      <c r="D58">
-        <v>0.27685456959695459</v>
-      </c>
-      <c r="E58">
-        <v>8.8561143984220974E-3</v>
-      </c>
       <c r="F58">
-        <v>-1.7116372788092871</v>
+        <v>-0.02940893915505932</v>
       </c>
       <c r="G58">
-        <v>0.51445702516974112</v>
+        <v>0.3214809837341731</v>
       </c>
       <c r="H58">
-        <v>6.7429950925541101E-3</v>
+        <v>0.007797229219542878</v>
       </c>
       <c r="I58">
-        <v>-1.7538174812517848E-2</v>
+        <v>-0.01753817481251785</v>
       </c>
       <c r="J58">
-        <v>6.7469154100244649E-3</v>
+        <v>0.5144570251697411</v>
       </c>
       <c r="K58">
-        <v>0.32628657728182731</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.00674299509255411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-2.5480682702588991E-3</v>
+        <v>0.008839447731755426</v>
       </c>
       <c r="C59">
+        <v>0.008350754052145502</v>
+      </c>
+      <c r="D59">
+        <v>0.2722573971435143</v>
+      </c>
+      <c r="E59">
         <v>0.1737939528201338</v>
       </c>
-      <c r="D59">
-        <v>0.27225739714351432</v>
-      </c>
-      <c r="E59">
-        <v>8.8394477317554256E-3</v>
-      </c>
       <c r="F59">
-        <v>-1.715706272397441</v>
+        <v>-0.002548068270258899</v>
       </c>
       <c r="G59">
-        <v>0.50699493879519331</v>
+        <v>0.3485376826806451</v>
       </c>
       <c r="H59">
-        <v>1.8818875780015131E-2</v>
+        <v>0.003728235631388943</v>
       </c>
       <c r="I59">
-        <v>-3.0395939663405262E-2</v>
+        <v>-0.03039593966340526</v>
       </c>
       <c r="J59">
-        <v>8.752682136453957E-3</v>
+        <v>0.5069949387951933</v>
       </c>
       <c r="K59">
-        <v>0.35133877171375488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01881887578001513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>1.772182290283263E-2</v>
+        <v>0.00958111439842209</v>
       </c>
       <c r="C60">
-        <v>0.1571160427117837</v>
+        <v>0.007218986707293849</v>
       </c>
       <c r="D60">
         <v>0.2775430699115331</v>
       </c>
       <c r="E60">
-        <v>9.5811143984220904E-3</v>
+        <v>0.1571160427117837</v>
       </c>
       <c r="F60">
-        <v>-1.7101850037937341</v>
+        <v>0.01772182290283263</v>
       </c>
       <c r="G60">
-        <v>0.53312457055057916</v>
+        <v>0.341436800536372</v>
       </c>
       <c r="H60">
-        <v>1.195606933328892E-2</v>
+        <v>0.009249504235096106</v>
       </c>
       <c r="I60">
-        <v>-2.397131545692854E-2</v>
+        <v>-0.02397131545692854</v>
       </c>
       <c r="J60">
-        <v>7.2275572609977606E-3</v>
+        <v>0.5331245705505792</v>
       </c>
       <c r="K60">
-        <v>0.34675782735674271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01195606933328892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>1.0736444420240901E-2</v>
+        <v>0.01500611439842209</v>
       </c>
       <c r="C61">
-        <v>0.11333899850000149</v>
+        <v>0.003902272331407972</v>
       </c>
       <c r="D61">
-        <v>0.27526132469288461</v>
+        <v>0.2752613246928846</v>
       </c>
       <c r="E61">
-        <v>1.500611439842209E-2</v>
+        <v>0.1133389985000015</v>
       </c>
       <c r="F61">
-        <v>-1.7131515367660559</v>
+        <v>0.0107364444202409</v>
       </c>
       <c r="G61">
-        <v>0.53066567566952827</v>
+        <v>0.3600322408782611</v>
       </c>
       <c r="H61">
-        <v>1.0425270836762431E-2</v>
+        <v>0.006282971262773806</v>
       </c>
       <c r="I61">
-        <v>-2.5625422765364721E-2</v>
+        <v>-0.02562542276536472</v>
       </c>
       <c r="J61">
-        <v>3.538585554081583E-3</v>
+        <v>0.5306656756695283</v>
       </c>
       <c r="K61">
-        <v>0.36451011735417288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01042527083676243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-1.334202962944691E-2</v>
+        <v>0.0187811143984221</v>
       </c>
       <c r="C62">
-        <v>2.9671139213457209E-2</v>
+        <v>0.0007289594897337583</v>
       </c>
       <c r="D62">
         <v>0.26943236251517</v>
       </c>
       <c r="E62">
-        <v>1.8781114398422099E-2</v>
+        <v>0.02967113921345721</v>
       </c>
       <c r="F62">
-        <v>-1.7129514011178939</v>
+        <v>-0.01334202962944691</v>
       </c>
       <c r="G62">
-        <v>0.53715384312517767</v>
+        <v>0.3532997210790328</v>
       </c>
       <c r="H62">
-        <v>1.6145042725673471E-2</v>
+        <v>0.006483106910936487</v>
       </c>
       <c r="I62">
-        <v>-2.9196109774723311E-2</v>
+        <v>-0.02919610977472331</v>
       </c>
       <c r="J62">
-        <v>1.1137714962253661E-3</v>
+        <v>0.5371538431251777</v>
       </c>
       <c r="K62">
-        <v>0.35829734535219332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01614504272567347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-4.3466240284367581E-2</v>
+        <v>0.009439447731755429</v>
       </c>
       <c r="C63">
-        <v>-0.17874700380852729</v>
+        <v>0.01580148515690974</v>
       </c>
       <c r="D63">
-        <v>0.24293760786195981</v>
+        <v>0.2429376078619598</v>
       </c>
       <c r="E63">
-        <v>9.4394477317554289E-3</v>
+        <v>-0.1787470038085273</v>
       </c>
       <c r="F63">
-        <v>-1.7107946920996711</v>
+        <v>-0.04346624028436758</v>
       </c>
       <c r="G63">
-        <v>0.48116529717175283</v>
+        <v>0.3410098129774835</v>
       </c>
       <c r="H63">
-        <v>1.8784171218905809E-2</v>
+        <v>0.008639815929159333</v>
       </c>
       <c r="I63">
-        <v>-5.0616299353653187E-2</v>
+        <v>-0.05061629935365319</v>
       </c>
       <c r="J63">
-        <v>1.508836280811875E-2</v>
+        <v>0.4811652971717528</v>
       </c>
       <c r="K63">
-        <v>0.34392752051152148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01878417121890581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-6.1590735656797103E-2</v>
+        <v>0.008281114398422095</v>
       </c>
       <c r="C64">
-        <v>-0.1662039108946711</v>
+        <v>0.009475705377550967</v>
       </c>
       <c r="D64">
         <v>0.2496206453703351</v>
       </c>
       <c r="E64">
-        <v>8.2811143984220948E-3</v>
+        <v>-0.1662039108946711</v>
       </c>
       <c r="F64">
-        <v>-1.710217315073425</v>
+        <v>-0.0615907356567971</v>
       </c>
       <c r="G64">
-        <v>0.48426472262830261</v>
+        <v>0.3484409825135469</v>
       </c>
       <c r="H64">
-        <v>6.4272939029103634E-3</v>
+        <v>0.009217192955405162</v>
       </c>
       <c r="I64">
-        <v>-5.9697496623670958E-2</v>
+        <v>-0.05969749662367096</v>
       </c>
       <c r="J64">
-        <v>1.02028782794724E-2</v>
+        <v>0.4842647226283026</v>
       </c>
       <c r="K64">
-        <v>0.35340880399179908</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.006427293902910363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-4.6372979889594018E-2</v>
+        <v>0.0194311143984221</v>
       </c>
       <c r="C65">
-        <v>-7.6227659105983392E-2</v>
+        <v>0.0114710848364468</v>
       </c>
       <c r="D65">
-        <v>0.25937652160656022</v>
+        <v>0.2593765216065602</v>
       </c>
       <c r="E65">
-        <v>1.94311143984221E-2</v>
+        <v>-0.07622765910598339</v>
       </c>
       <c r="F65">
-        <v>-1.7059090674345101</v>
+        <v>-0.04637297988959402</v>
       </c>
       <c r="G65">
-        <v>0.50176403344087195</v>
+        <v>0.3344767846527539</v>
       </c>
       <c r="H65">
-        <v>1.238034871045097E-2</v>
+        <v>0.01352544059432007</v>
       </c>
       <c r="I65">
-        <v>-4.2243786284901219E-2</v>
+        <v>-0.04224378628490122</v>
       </c>
       <c r="J65">
-        <v>1.079034474974804E-2</v>
+        <v>0.5017640334408719</v>
       </c>
       <c r="K65">
-        <v>0.33868731718909711</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.01238034871045097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-6.1564004749329507E-2</v>
+        <v>0.02137278106508876</v>
       </c>
       <c r="C66">
-        <v>-9.7776615574063364E-2</v>
+        <v>0.009959697710497459</v>
       </c>
       <c r="D66">
-        <v>0.26017945760576611</v>
+        <v>0.2601794576057661</v>
       </c>
       <c r="E66">
-        <v>2.1372781065088761E-2</v>
+        <v>-0.09777661557406336</v>
       </c>
       <c r="F66">
-        <v>-1.7088090589005029</v>
+        <v>-0.06156400474932951</v>
       </c>
       <c r="G66">
-        <v>0.51413051080058381</v>
+        <v>0.3476270617448438</v>
       </c>
       <c r="H66">
-        <v>2.184347303112406E-2</v>
+        <v>0.010625449128327</v>
       </c>
       <c r="I66">
-        <v>-3.9953434292588241E-2</v>
+        <v>-0.03995343429258824</v>
       </c>
       <c r="J66">
-        <v>1.031959500538414E-2</v>
+        <v>0.5141305108005838</v>
       </c>
       <c r="K66">
-        <v>0.35255676007989267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.02184347303112406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-8.0037821762799971E-2</v>
+        <v>0.02266444773175542</v>
       </c>
       <c r="C67">
-        <v>-0.13567209881057621</v>
+        <v>0.007540121194323377</v>
       </c>
       <c r="D67">
         <v>0.2571203845784793</v>
       </c>
       <c r="E67">
-        <v>2.2664447731755421E-2</v>
+        <v>-0.1356720988105762</v>
       </c>
       <c r="F67">
-        <v>-1.7119866536530319</v>
+        <v>-0.08003782176279997</v>
       </c>
       <c r="G67">
-        <v>0.53082941673935569</v>
+        <v>0.3420441982040161</v>
       </c>
       <c r="H67">
-        <v>1.0737766002580199E-2</v>
+        <v>0.007447854375797791</v>
       </c>
       <c r="I67">
-        <v>-3.6953237963837537E-2</v>
+        <v>-0.03695323796383754</v>
       </c>
       <c r="J67">
-        <v>7.8864676678508244E-3</v>
+        <v>0.5308294167393557</v>
       </c>
       <c r="K67">
-        <v>0.34507199849131021</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0107377660025802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.1053062611275826</v>
+        <v>0.02303111439842209</v>
       </c>
       <c r="C68">
-        <v>-0.2190250778842335</v>
+        <v>0.01624966131927666</v>
       </c>
       <c r="D68">
         <v>0.2576951439341757</v>
       </c>
       <c r="E68">
-        <v>2.3031114398422089E-2</v>
+        <v>-0.2190250778842335</v>
       </c>
       <c r="F68">
-        <v>-1.710999596441241</v>
+        <v>-0.1053062611275826</v>
       </c>
       <c r="G68">
-        <v>0.55135137558569802</v>
+        <v>0.3210869675088238</v>
       </c>
       <c r="H68">
-        <v>1.1826175909467501E-2</v>
+        <v>0.008434911587588944</v>
       </c>
       <c r="I68">
-        <v>-4.3885473624317051E-2</v>
+        <v>-0.04388547362431705</v>
       </c>
       <c r="J68">
-        <v>1.6256324847363599E-2</v>
+        <v>0.551351375585698</v>
       </c>
       <c r="K68">
-        <v>0.3241147677961177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0118261759094675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.1098096374676044</v>
+        <v>0.01477278106508876</v>
       </c>
       <c r="C69">
-        <v>-0.33087526425976233</v>
+        <v>0.01237972906178378</v>
       </c>
       <c r="D69">
         <v>0.2467341652570951</v>
       </c>
       <c r="E69">
-        <v>1.4772781065088759E-2</v>
+        <v>-0.3308752642597623</v>
       </c>
       <c r="F69">
-        <v>-1.7170482650121339</v>
+        <v>-0.1098096374676044</v>
       </c>
       <c r="G69">
-        <v>0.57194213832615759</v>
+        <v>0.3100146730493785</v>
       </c>
       <c r="H69">
-        <v>9.0084068968136529E-3</v>
+        <v>0.002386243016696021</v>
       </c>
       <c r="I69">
-        <v>-6.2031124313234542E-2</v>
+        <v>-0.06203112431323454</v>
       </c>
       <c r="J69">
-        <v>1.1759114945933831E-2</v>
+        <v>0.5719421383261576</v>
       </c>
       <c r="K69">
-        <v>0.31516373216798599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.009008406896813653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B70">
+        <v>0.01743111439842209</v>
+      </c>
+      <c r="C70">
+        <v>0.01521212848695333</v>
+      </c>
+      <c r="D70">
+        <v>0.2503427843228629</v>
+      </c>
+      <c r="E70">
+        <v>-0.3930987514793509</v>
+      </c>
+      <c r="F70">
         <v>-0.1640941795658708</v>
       </c>
-      <c r="C70">
-        <v>-0.39309875147935092</v>
-      </c>
-      <c r="D70">
-        <v>0.25034278432286289</v>
-      </c>
-      <c r="E70">
-        <v>1.7431114398422091E-2</v>
-      </c>
-      <c r="F70">
-        <v>-1.71593863416531</v>
-      </c>
       <c r="G70">
-        <v>0.54457899510365504</v>
+        <v>0.3201492138930113</v>
       </c>
       <c r="H70">
-        <v>3.9373014503060796E-3</v>
+        <v>0.00349587386352016</v>
       </c>
       <c r="I70">
-        <v>-8.9819939012119043E-2</v>
+        <v>-0.08981993901211904</v>
       </c>
       <c r="J70">
-        <v>1.5848286486096812E-2</v>
+        <v>0.544578995103655</v>
       </c>
       <c r="K70">
-        <v>0.32481835684784888</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.00393730145030608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.15844847520315111</v>
+        <v>0.01644778106508876</v>
       </c>
       <c r="C71">
-        <v>-0.42799889310227712</v>
+        <v>-0.005357595906011894</v>
       </c>
       <c r="D71">
-        <v>0.25081704474082761</v>
+        <v>0.2508170447408276</v>
       </c>
       <c r="E71">
-        <v>1.6447781065088759E-2</v>
+        <v>-0.4279988931022771</v>
       </c>
       <c r="F71">
-        <v>-1.7204085718110229</v>
+        <v>-0.1584484752031511</v>
       </c>
       <c r="G71">
-        <v>0.50522206879271181</v>
+        <v>0.3036371088161962</v>
       </c>
       <c r="H71">
-        <v>2.7833410424608681E-3</v>
+        <v>-0.000974063782192747</v>
       </c>
       <c r="I71">
-        <v>-8.6039286408220228E-2</v>
+        <v>-0.08603928640822023</v>
       </c>
       <c r="J71">
-        <v>-5.6481300231102788E-3</v>
+        <v>0.5052220687927118</v>
       </c>
       <c r="K71">
-        <v>0.30853864679291099</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002783341042460868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1788617687814531</v>
+        <v>0.008689447731755428</v>
       </c>
       <c r="C72">
-        <v>-0.43432394902382748</v>
+        <v>0.001245475539849026</v>
       </c>
       <c r="D72">
         <v>0.2555885932500499</v>
       </c>
       <c r="E72">
-        <v>8.6894477317554283E-3</v>
+        <v>-0.4343239490238275</v>
       </c>
       <c r="F72">
-        <v>-1.7171420599371521</v>
+        <v>-0.1788617687814531</v>
       </c>
       <c r="G72">
+        <v>0.2821034666139187</v>
+      </c>
+      <c r="H72">
+        <v>0.002292448091678534</v>
+      </c>
+      <c r="I72">
+        <v>-0.09762948934320326</v>
+      </c>
+      <c r="J72">
         <v>0.4680934380722892</v>
       </c>
-      <c r="H72">
-        <v>3.1432620037569799E-3</v>
-      </c>
-      <c r="I72">
-        <v>-9.7629489343203257E-2</v>
-      </c>
-      <c r="J72">
-        <v>1.5616957590150889E-3</v>
-      </c>
       <c r="K72">
-        <v>0.2870114303072081</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.00314326200375698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.19964992219716979</v>
+        <v>0.005164447731755428</v>
       </c>
       <c r="C73">
+        <v>0.001687330359366777</v>
+      </c>
+      <c r="D73">
+        <v>0.2705422924262799</v>
+      </c>
+      <c r="E73">
         <v>-0.366430252446313</v>
       </c>
-      <c r="D73">
-        <v>0.27054229242627992</v>
-      </c>
-      <c r="E73">
-        <v>5.1644477317554279E-3</v>
-      </c>
       <c r="F73">
-        <v>-1.722734354541819</v>
+        <v>-0.1996499221971698</v>
       </c>
       <c r="G73">
-        <v>0.44456438594510322</v>
+        <v>0.2620372554450532</v>
       </c>
       <c r="H73">
-        <v>1.5892939649030989E-3</v>
+        <v>-0.00329984651298928</v>
       </c>
       <c r="I73">
         <v>-0.1091330119847167</v>
       </c>
       <c r="J73">
-        <v>1.4023180473255879E-3</v>
+        <v>0.4445643859451032</v>
       </c>
       <c r="K73">
-        <v>0.26718631456366088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001589293964903099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.18386010075783929</v>
+        <v>0.005664447731755428</v>
       </c>
       <c r="C74">
-        <v>-0.21174888200967781</v>
+        <v>5.792096010129658e-05</v>
       </c>
       <c r="D74">
-        <v>0.27764602509193242</v>
+        <v>0.2776460250919324</v>
       </c>
       <c r="E74">
-        <v>5.6644477317554284E-3</v>
+        <v>-0.2117488820096778</v>
       </c>
       <c r="F74">
-        <v>-1.718252716148311</v>
+        <v>-0.1838601007578393</v>
       </c>
       <c r="G74">
+        <v>0.2828808997519088</v>
+      </c>
+      <c r="H74">
+        <v>0.001181791880519622</v>
+      </c>
+      <c r="I74">
+        <v>-0.09896455768970247</v>
+      </c>
+      <c r="J74">
         <v>0.4233919778393016</v>
       </c>
-      <c r="H74">
-        <v>-4.4808502663605202E-3</v>
-      </c>
-      <c r="I74">
-        <v>-9.896455768970247E-2</v>
-      </c>
-      <c r="J74">
-        <v>3.6699520190240642E-4</v>
-      </c>
       <c r="K74">
-        <v>0.28686257315005198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00448085026636052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.19110670175426231</v>
+        <v>0.006389447731755425</v>
       </c>
       <c r="C75">
-        <v>-0.10248262716835389</v>
+        <v>-0.01321496035102695</v>
       </c>
       <c r="D75">
-        <v>0.29473419542793261</v>
+        <v>0.2947341954279326</v>
       </c>
       <c r="E75">
-        <v>6.3894477317554248E-3</v>
+        <v>-0.1024826271683539</v>
       </c>
       <c r="F75">
-        <v>-1.721259878968793</v>
+        <v>-0.1911067017542623</v>
       </c>
       <c r="G75">
-        <v>0.43270174912488552</v>
+        <v>0.2819837120247579</v>
       </c>
       <c r="H75">
-        <v>-5.94815177771762E-3</v>
+        <v>-0.001825370939963012</v>
       </c>
       <c r="I75">
-        <v>-8.0151585340228149E-2</v>
+        <v>-0.08015158534022815</v>
       </c>
       <c r="J75">
-        <v>-1.3786987593840909E-2</v>
+        <v>0.4327017491248855</v>
       </c>
       <c r="K75">
-        <v>0.28665076134602141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00594815177771762</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.15817664025316991</v>
+        <v>0.008247781065088762</v>
       </c>
       <c r="C76">
-        <v>-1.095568469253827E-2</v>
+        <v>-0.009688745314952753</v>
       </c>
       <c r="D76">
-        <v>0.30951307124695759</v>
+        <v>0.3095130712469576</v>
       </c>
       <c r="E76">
-        <v>8.2477810650887617E-3</v>
+        <v>-0.01095568469253827</v>
       </c>
       <c r="F76">
-        <v>-1.7225624140239539</v>
+        <v>-0.1581766402531699</v>
       </c>
       <c r="G76">
+        <v>0.2883763047606264</v>
+      </c>
+      <c r="H76">
+        <v>-0.003127905995123992</v>
+      </c>
+      <c r="I76">
+        <v>-0.06204183790744411</v>
+      </c>
+      <c r="J76">
         <v>0.4738966134163709</v>
       </c>
-      <c r="H76">
-        <v>3.3172426820188798E-4</v>
-      </c>
-      <c r="I76">
-        <v>-6.2041837907444108E-2</v>
-      </c>
-      <c r="J76">
-        <v>-9.3789804532543736E-3</v>
-      </c>
       <c r="K76">
-        <v>0.29191245264738003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.000331724268201888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.14186756647337509</v>
+        <v>0.007397781065088758</v>
       </c>
       <c r="C77">
-        <v>2.7736266987231421E-2</v>
+        <v>-0.005301721181599741</v>
       </c>
       <c r="D77">
-        <v>0.32230632759367511</v>
+        <v>0.3223063275936751</v>
       </c>
       <c r="E77">
-        <v>7.3977810650887581E-3</v>
+        <v>0.02773626698723142</v>
       </c>
       <c r="F77">
-        <v>-1.719819606272827</v>
+        <v>-0.1418675664733751</v>
       </c>
       <c r="G77">
-        <v>0.53383762023481118</v>
+        <v>0.2824308930143034</v>
       </c>
       <c r="H77">
-        <v>-3.1856430394015482E-3</v>
+        <v>-0.0003850982439966514</v>
       </c>
       <c r="I77">
-        <v>-4.7611104275853577E-2</v>
+        <v>-0.04761110427585358</v>
       </c>
       <c r="J77">
-        <v>-4.9941890402983719E-3</v>
+        <v>0.5338376202348112</v>
       </c>
       <c r="K77">
-        <v>0.28596704090105729</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003185643039401548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-9.2187727448745788E-2</v>
+        <v>0.00832278106508876</v>
       </c>
       <c r="C78">
-        <v>5.0818142813885643E-2</v>
+        <v>-0.004755437473773241</v>
       </c>
       <c r="D78">
-        <v>0.32671737806203049</v>
+        <v>0.3267173780620305</v>
       </c>
       <c r="E78">
-        <v>8.3227810650887604E-3</v>
+        <v>0.05081814281388564</v>
       </c>
       <c r="F78">
-        <v>-1.7227149580859531</v>
+        <v>-0.09218772744874579</v>
       </c>
       <c r="G78">
-        <v>0.56173115864373457</v>
+        <v>0.2843949287226336</v>
       </c>
       <c r="H78">
-        <v>-2.1464849180406419E-3</v>
+        <v>-0.00328045005712293</v>
       </c>
       <c r="I78">
-        <v>-3.4034246525962868E-2</v>
+        <v>-0.03403424652596287</v>
       </c>
       <c r="J78">
-        <v>-5.0317617079506244E-3</v>
+        <v>0.5617311586437346</v>
       </c>
       <c r="K78">
-        <v>0.28793708649866018</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002146484918040642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-6.9360159190982013E-2</v>
+        <v>0.009889447731755428</v>
       </c>
       <c r="C79">
-        <v>6.6709404565052921E-2</v>
+        <v>-0.005661349535626772</v>
       </c>
       <c r="D79">
-        <v>0.33842853226503378</v>
+        <v>0.3384285322650338</v>
       </c>
       <c r="E79">
-        <v>9.8894477317554279E-3</v>
+        <v>0.06670940456505292</v>
       </c>
       <c r="F79">
-        <v>-1.7223839046380149</v>
+        <v>-0.06936015919098201</v>
       </c>
       <c r="G79">
-        <v>0.60787404320644267</v>
+        <v>0.2978441215894911</v>
       </c>
       <c r="H79">
-        <v>-5.5292533429179315E-4</v>
+        <v>-0.002949396609184774</v>
       </c>
       <c r="I79">
-        <v>-2.8429834369544601E-2</v>
+        <v>-0.0284298343695446</v>
       </c>
       <c r="J79">
-        <v>-5.9343042336123114E-3</v>
+        <v>0.6078740432064427</v>
       </c>
       <c r="K79">
-        <v>0.30096473576180899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0005529253342917931</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-5.3732114839306892E-2</v>
+        <v>0.01119778106508876</v>
       </c>
       <c r="C80">
-        <v>5.4530231597935241E-2</v>
+        <v>-0.008852776768813988</v>
       </c>
       <c r="D80">
-        <v>0.34342362878160332</v>
+        <v>0.3434236287816033</v>
       </c>
       <c r="E80">
-        <v>1.1197781065088759E-2</v>
+        <v>0.05453023159793524</v>
       </c>
       <c r="F80">
-        <v>-1.721670868542639</v>
+        <v>-0.05373211483930689</v>
       </c>
       <c r="G80">
-        <v>0.63766311811027165</v>
+        <v>0.2985996133737975</v>
       </c>
       <c r="H80">
-        <v>-1.2097025443412129E-3</v>
+        <v>-0.002236360513809011</v>
       </c>
       <c r="I80">
-        <v>-2.5856707238685939E-2</v>
+        <v>-0.02585670723868594</v>
       </c>
       <c r="J80">
-        <v>-8.5486141637044627E-3</v>
+        <v>0.6376631181102717</v>
       </c>
       <c r="K80">
-        <v>0.3028101459101411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001209702544341213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-3.94621950987534E-2</v>
+        <v>0.007406114398422097</v>
       </c>
       <c r="C81">
-        <v>5.2517711354534313E-2</v>
+        <v>-0.01000750518113477</v>
       </c>
       <c r="D81">
-        <v>0.35350880036971472</v>
+        <v>0.3535088003697147</v>
       </c>
       <c r="E81">
-        <v>7.4061143984220966E-3</v>
+        <v>0.05251771135453431</v>
       </c>
       <c r="F81">
-        <v>-1.72563057160883</v>
+        <v>-0.0394621950987534</v>
       </c>
       <c r="G81">
-        <v>0.65866559789075119</v>
+        <v>0.3043583209143045</v>
       </c>
       <c r="H81">
-        <v>-4.1485204948186697E-3</v>
+        <v>-0.006196063579999656</v>
       </c>
       <c r="I81">
-        <v>-2.1941153801108729E-2</v>
+        <v>-0.02194115380110873</v>
       </c>
       <c r="J81">
-        <v>-1.027946413393978E-2</v>
+        <v>0.6586655978907512</v>
       </c>
       <c r="K81">
-        <v>0.30771378713091452</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00414852049481867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-2.6389491936538789E-2</v>
+        <v>0.005856114398422095</v>
       </c>
       <c r="C82">
-        <v>4.7244090039255227E-2</v>
+        <v>-0.0005761439637758901</v>
       </c>
       <c r="D82">
-        <v>0.36796293128821578</v>
+        <v>0.3679629312882158</v>
       </c>
       <c r="E82">
-        <v>5.8561143984220947E-3</v>
+        <v>0.04724409003925523</v>
       </c>
       <c r="F82">
-        <v>-1.723338601226545</v>
+        <v>-0.02638949193653879</v>
       </c>
       <c r="G82">
-        <v>0.66790551360155259</v>
+        <v>0.2889610183612268</v>
       </c>
       <c r="H82">
-        <v>1.983585975351814E-3</v>
+        <v>-0.00390409319771442</v>
       </c>
       <c r="I82">
-        <v>-2.2564191204737401E-2</v>
+        <v>-0.0225641912047374</v>
       </c>
       <c r="J82">
-        <v>1.1477456455563639E-5</v>
+        <v>0.6679055136015526</v>
       </c>
       <c r="K82">
-        <v>0.2938151205861993</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001983585975351814</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-9.9291085421330631E-3</v>
+        <v>0.004047781065088759</v>
       </c>
       <c r="C83">
-        <v>5.2696337842379933E-2</v>
+        <v>-0.01115825329431283</v>
       </c>
       <c r="D83">
-        <v>0.37463642559521387</v>
+        <v>0.3746364255952139</v>
       </c>
       <c r="E83">
-        <v>4.0477810650887593E-3</v>
+        <v>0.05269633784237993</v>
       </c>
       <c r="F83">
-        <v>-1.722626638368518</v>
+        <v>-0.009929108542133063</v>
       </c>
       <c r="G83">
-        <v>0.67972781876699973</v>
+        <v>0.2767236257902518</v>
       </c>
       <c r="H83">
-        <v>-3.3522422541612481E-3</v>
+        <v>-0.003192130339688315</v>
       </c>
       <c r="I83">
-        <v>-1.3434579995001529E-2</v>
+        <v>-0.01343457999500153</v>
       </c>
       <c r="J83">
-        <v>-1.114264934075084E-2</v>
+        <v>0.6797278187669997</v>
       </c>
       <c r="K83">
-        <v>0.28093415832659541</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003352242254161248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-3.248956333303292E-3</v>
+        <v>0.003164447731755426</v>
       </c>
       <c r="C84">
-        <v>6.2556576270920594E-2</v>
+        <v>-0.006899907611735503</v>
       </c>
       <c r="D84">
-        <v>0.39081628578003752</v>
+        <v>0.3908162857800375</v>
       </c>
       <c r="E84">
-        <v>3.1644477317554261E-3</v>
+        <v>0.06255657627092059</v>
       </c>
       <c r="F84">
-        <v>-1.7238308308972861</v>
+        <v>-0.003248956333303292</v>
       </c>
       <c r="G84">
-        <v>0.66161398713679098</v>
+        <v>0.2662381388535451</v>
       </c>
       <c r="H84">
-        <v>-2.9745789386029179E-3</v>
+        <v>-0.004396322868455449</v>
       </c>
       <c r="I84">
-        <v>-8.7049038192121841E-3</v>
+        <v>-0.008704903819212184</v>
       </c>
       <c r="J84">
-        <v>-6.8855122174319577E-3</v>
+        <v>0.661613987136791</v>
       </c>
       <c r="K84">
-        <v>0.27066556760589972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002974578938602918</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-3.0979450100805661E-3</v>
+        <v>0.003314447731755427</v>
       </c>
       <c r="C85">
-        <v>8.3127953547313282E-2</v>
+        <v>-0.009177214016174964</v>
       </c>
       <c r="D85">
-        <v>0.39010946795112972</v>
+        <v>0.3901094679511297</v>
       </c>
       <c r="E85">
-        <v>3.314447731755427E-3</v>
+        <v>0.08312795354731328</v>
       </c>
       <c r="F85">
-        <v>-1.7242552104003599</v>
+        <v>-0.003097945010080566</v>
       </c>
       <c r="G85">
-        <v>0.67578200310890502</v>
+        <v>0.2803306033529407</v>
       </c>
       <c r="H85">
-        <v>-6.0187938354899174E-3</v>
+        <v>-0.004820702371529506</v>
       </c>
       <c r="I85">
-        <v>-2.4041350233439121E-4</v>
+        <v>-0.0002404135023343912</v>
       </c>
       <c r="J85">
-        <v>-9.4448560636569839E-3</v>
+        <v>0.675782003108905</v>
       </c>
       <c r="K85">
-        <v>0.28432789353854548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.006018793835489917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-7.0583117497069053E-3</v>
+        <v>0.002639447731755425</v>
       </c>
       <c r="C86">
+        <v>-0.01313929257245069</v>
+      </c>
+      <c r="D86">
+        <v>0.3935038992035866</v>
+      </c>
+      <c r="E86">
         <v>0.120196306125397</v>
       </c>
-      <c r="D86">
-        <v>0.39350389920358658</v>
-      </c>
-      <c r="E86">
-        <v>2.639447731755425E-3</v>
-      </c>
       <c r="F86">
-        <v>-1.7254227645188069</v>
+        <v>-0.007058311749706905</v>
       </c>
       <c r="G86">
-        <v>0.65703187176204558</v>
+        <v>0.2817808205274186</v>
       </c>
       <c r="H86">
-        <v>-4.2050548209254194E-3</v>
+        <v>-0.005988256489977218</v>
       </c>
       <c r="I86">
-        <v>-2.7930993321896298E-3</v>
+        <v>-0.00279309933218963</v>
       </c>
       <c r="J86">
-        <v>-1.2840442617844691E-2</v>
+        <v>0.6570318717620456</v>
       </c>
       <c r="K86">
-        <v>0.28641499212961929</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004205054820925419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-9.8978280782307387E-4</v>
+        <v>0.0007477810650887602</v>
       </c>
       <c r="C87">
+        <v>-0.003819806587860266</v>
+      </c>
+      <c r="D87">
+        <v>0.4012768005482457</v>
+      </c>
+      <c r="E87">
         <v>0.1715293140777536</v>
       </c>
-      <c r="D87">
-        <v>0.40127680054824572</v>
-      </c>
-      <c r="E87">
-        <v>7.4778106508876022E-4</v>
-      </c>
       <c r="F87">
-        <v>-1.727695093977728</v>
+        <v>-0.0009897828078230739</v>
       </c>
       <c r="G87">
-        <v>0.62887882229608039</v>
+        <v>0.3046599958563264</v>
       </c>
       <c r="H87">
-        <v>-6.90430898355659E-3</v>
+        <v>-0.008260585948897415</v>
       </c>
       <c r="I87">
-        <v>-3.8201427848054692E-3</v>
+        <v>-0.003820142784805469</v>
       </c>
       <c r="J87">
-        <v>-4.3687030317961653E-3</v>
+        <v>0.6288788222960804</v>
       </c>
       <c r="K87">
-        <v>0.30887052839266971</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00690430898355659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>1.095073612582022E-3</v>
+        <v>-0.0007938856015779067</v>
       </c>
       <c r="C88">
-        <v>0.18373299654249209</v>
+        <v>-0.004711139162082403</v>
       </c>
       <c r="D88">
         <v>0.4156229348398579</v>
       </c>
       <c r="E88">
-        <v>-7.9388560157790666E-4</v>
+        <v>0.1837329965424921</v>
       </c>
       <c r="F88">
-        <v>-1.7269575243063591</v>
+        <v>0.001095073612582022</v>
       </c>
       <c r="G88">
-        <v>0.61127064293175959</v>
+        <v>0.3159148480303677</v>
       </c>
       <c r="H88">
-        <v>-6.0266858818769867E-3</v>
+        <v>-0.007523016277528683</v>
       </c>
       <c r="I88">
-        <v>-7.5648064170596996E-4</v>
+        <v>-0.00075648064170597</v>
       </c>
       <c r="J88">
-        <v>-4.4142808120665317E-3</v>
+        <v>0.6112706429317596</v>
       </c>
       <c r="K88">
-        <v>0.3205326296051233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.006026685881876987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-5.1409328575692873E-3</v>
+        <v>-0.001218885601577908</v>
       </c>
       <c r="C89">
-        <v>0.17904875197885151</v>
+        <v>0.003541775660845379</v>
       </c>
       <c r="D89">
-        <v>0.41902546017244902</v>
+        <v>0.419025460172449</v>
       </c>
       <c r="E89">
-        <v>-1.218885601577908E-3</v>
+        <v>0.1790487519788515</v>
       </c>
       <c r="F89">
-        <v>-1.7243725967821379</v>
+        <v>-0.005140932857569287</v>
       </c>
       <c r="G89">
-        <v>0.61839626546736071</v>
+        <v>0.3004062797285753</v>
       </c>
       <c r="H89">
-        <v>-1.8024911958623381E-3</v>
+        <v>-0.004938088753307557</v>
       </c>
       <c r="I89">
-        <v>3.6182415834060682E-3</v>
+        <v>0.003618241583406068</v>
       </c>
       <c r="J89">
-        <v>3.8326721144256032E-3</v>
+        <v>0.6183962654673607</v>
       </c>
       <c r="K89">
-        <v>0.30379511953175092</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001802491195862338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>2.768176257424626E-2</v>
+        <v>-0.0007605522682445753</v>
       </c>
       <c r="C90">
-        <v>0.17290303669944149</v>
+        <v>-0.01612652186332283</v>
       </c>
       <c r="D90">
-        <v>0.41598247831217439</v>
+        <v>0.4159824783121744</v>
       </c>
       <c r="E90">
-        <v>-7.6055226824457527E-4</v>
+        <v>0.1729030366994415</v>
       </c>
       <c r="F90">
-        <v>-1.7244123291618809</v>
+        <v>0.02768176257424626</v>
       </c>
       <c r="G90">
-        <v>0.58715596252788682</v>
+        <v>0.3198137017808753</v>
       </c>
       <c r="H90">
-        <v>-4.1965041690961661E-3</v>
+        <v>-0.004977821133051197</v>
       </c>
       <c r="I90">
-        <v>1.3190911839261689E-2</v>
+        <v>0.01319091183926169</v>
       </c>
       <c r="J90">
-        <v>-1.6109546969087851E-2</v>
+        <v>0.5871559625278868</v>
       </c>
       <c r="K90">
-        <v>0.3240242343172185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004196504169096166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>2.502141046073959E-2</v>
+        <v>-0.0004605522682445753</v>
       </c>
       <c r="C91">
-        <v>0.17442541536185099</v>
+        <v>-0.003165927437922735</v>
       </c>
       <c r="D91">
         <v>0.4266787213677925</v>
       </c>
       <c r="E91">
-        <v>-4.6055226824457529E-4</v>
+        <v>0.174425415361851</v>
       </c>
       <c r="F91">
-        <v>-1.7248177986327751</v>
+        <v>0.02502141046073959</v>
       </c>
       <c r="G91">
-        <v>0.60804326288802191</v>
+        <v>0.3324858165736838</v>
       </c>
       <c r="H91">
-        <v>-3.9278177515696348E-3</v>
+        <v>-0.00538329060394468</v>
       </c>
       <c r="I91">
-        <v>1.560452042759808E-2</v>
+        <v>0.01560452042759808</v>
       </c>
       <c r="J91">
-        <v>-3.7015236460623689E-3</v>
+        <v>0.6080432628880219</v>
       </c>
       <c r="K91">
-        <v>0.33571161244748771</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003927817751569635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>1.999320091686407E-2</v>
+        <v>0.0005061143984220941</v>
       </c>
       <c r="C92">
+        <v>-0.01033509506426819</v>
+      </c>
+      <c r="D92">
+        <v>0.4351688573967296</v>
+      </c>
+      <c r="E92">
         <v>0.1688138413122742</v>
       </c>
-      <c r="D92">
-        <v>0.43516885739672961</v>
-      </c>
-      <c r="E92">
-        <v>5.0611439842209414E-4</v>
-      </c>
       <c r="F92">
-        <v>-1.723760246430726</v>
+        <v>0.01999320091686407</v>
       </c>
       <c r="G92">
-        <v>0.63706138300372928</v>
+        <v>0.3375047237108525</v>
       </c>
       <c r="H92">
-        <v>-4.6450883763876112E-4</v>
+        <v>-0.004325738401895396</v>
       </c>
       <c r="I92">
-        <v>2.016390109234267E-2</v>
+        <v>0.02016390109234267</v>
       </c>
       <c r="J92">
-        <v>-1.031926518554584E-2</v>
+        <v>0.6370613830037293</v>
       </c>
       <c r="K92">
-        <v>0.34249165380172442</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0004645088376387611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>3.8243105200034641E-2</v>
+        <v>5.61143984220934e-05</v>
       </c>
       <c r="C93">
-        <v>0.17133576277166271</v>
+        <v>-0.004869784177639249</v>
       </c>
       <c r="D93">
-        <v>0.43514811396958469</v>
+        <v>0.4351481139695847</v>
       </c>
       <c r="E93">
-        <v>5.6114398422093398E-5</v>
+        <v>0.1713357627716627</v>
       </c>
       <c r="F93">
-        <v>-1.7205618472754121</v>
+        <v>0.03824310520003464</v>
       </c>
       <c r="G93">
-        <v>0.63239548147019509</v>
+        <v>0.337451328326544</v>
       </c>
       <c r="H93">
-        <v>-5.2016855567230073E-3</v>
+        <v>-0.001127339246581449</v>
       </c>
       <c r="I93">
-        <v>3.008207804424945E-2</v>
+        <v>0.03008207804424945</v>
       </c>
       <c r="J93">
-        <v>-4.579869428227204E-3</v>
+        <v>0.6323954814701951</v>
       </c>
       <c r="K93">
-        <v>0.34108142164759708</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005201685556723007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>2.2150400845298481E-2</v>
+        <v>-0.000293885601577908</v>
       </c>
       <c r="C94">
+        <v>-0.0008544744988625251</v>
+      </c>
+      <c r="D94">
+        <v>0.4489426434642043</v>
+      </c>
+      <c r="E94">
         <v>0.1467374234559404</v>
       </c>
-      <c r="D94">
-        <v>0.44894264346420432</v>
-      </c>
-      <c r="E94">
-        <v>-2.9388560157790801E-4</v>
-      </c>
       <c r="F94">
-        <v>-1.726383946096276</v>
+        <v>0.02215040084529848</v>
       </c>
       <c r="G94">
-        <v>0.63718472334145737</v>
+        <v>0.3428923064764337</v>
       </c>
       <c r="H94">
-        <v>-1.123223123000778E-3</v>
+        <v>-0.006949438067446046</v>
       </c>
       <c r="I94">
-        <v>3.5128592232072542E-2</v>
+        <v>0.03512859223207254</v>
       </c>
       <c r="J94">
-        <v>-5.6914701028699943E-4</v>
+        <v>0.6371847233414574</v>
       </c>
       <c r="K94">
-        <v>0.34691198110590871</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001123223123000778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>5.0487205871135532E-2</v>
+        <v>0.00092278106508876</v>
       </c>
       <c r="C95">
+        <v>-0.003098026959561486</v>
+      </c>
+      <c r="D95">
+        <v>0.4537815398790022</v>
+      </c>
+      <c r="E95">
         <v>0.152186602461124</v>
       </c>
-      <c r="D95">
-        <v>0.45378153987900222</v>
-      </c>
-      <c r="E95">
-        <v>9.2278106508876002E-4</v>
-      </c>
       <c r="F95">
-        <v>-1.719996742930342</v>
+        <v>0.05048720587113553</v>
       </c>
       <c r="G95">
-        <v>0.65923872989083954</v>
+        <v>0.338575472217776</v>
       </c>
       <c r="H95">
-        <v>-1.0046921103992689E-3</v>
+        <v>-0.000562234901512049</v>
       </c>
       <c r="I95">
-        <v>4.0543990203472553E-2</v>
+        <v>0.04054399020347255</v>
       </c>
       <c r="J95">
-        <v>-3.0845880109885569E-3</v>
+        <v>0.6592387298908395</v>
       </c>
       <c r="K95">
-        <v>0.34240570431219008</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001004692110399269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>4.6900288862661253E-2</v>
+        <v>0.002922781065088762</v>
       </c>
       <c r="C96">
+        <v>-0.001570962815485823</v>
+      </c>
+      <c r="D96">
+        <v>0.459639671187801</v>
+      </c>
+      <c r="E96">
         <v>0.1503366212688588</v>
       </c>
-      <c r="D96">
-        <v>0.45963967118780102</v>
-      </c>
-      <c r="E96">
-        <v>2.9227810650887618E-3</v>
-      </c>
       <c r="F96">
-        <v>-1.722570028874032</v>
+        <v>0.04690028886266125</v>
       </c>
       <c r="G96">
-        <v>0.66194908133414909</v>
+        <v>0.3398038969032331</v>
       </c>
       <c r="H96">
-        <v>9.8279713275312673E-4</v>
+        <v>-0.003135520845202045</v>
       </c>
       <c r="I96">
-        <v>4.4322320159846378E-2</v>
+        <v>0.04432232015984638</v>
       </c>
       <c r="J96">
-        <v>-1.5579114277634171E-3</v>
+        <v>0.6619490813341491</v>
       </c>
       <c r="K96">
-        <v>0.34345036060822498</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0009827971327531267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>5.1902256078318151E-2</v>
+        <v>0.004714447731755425</v>
       </c>
       <c r="C97">
-        <v>0.15695697950159901</v>
+        <v>-0.005344283428893006</v>
       </c>
       <c r="D97">
-        <v>0.46908522947691139</v>
+        <v>0.4690852294769114</v>
       </c>
       <c r="E97">
-        <v>4.7144477317554254E-3</v>
+        <v>0.156956979501599</v>
       </c>
       <c r="F97">
-        <v>-1.7194990884350421</v>
+        <v>0.05190225607831815</v>
       </c>
       <c r="G97">
-        <v>0.67012019844917869</v>
+        <v>0.330042981125153</v>
       </c>
       <c r="H97">
-        <v>-1.2516071073501119E-3</v>
+        <v>-6.458040621167872e-05</v>
       </c>
       <c r="I97">
-        <v>5.1389631316595803E-2</v>
+        <v>0.0513896313165958</v>
       </c>
       <c r="J97">
-        <v>-5.5936854395158969E-3</v>
+        <v>0.6701201984491787</v>
       </c>
       <c r="K97">
-        <v>0.33444181984791088</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001251607107350112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>4.1317326774542057E-2</v>
+        <v>0.006747781065088757</v>
       </c>
       <c r="C98">
-        <v>0.14767357301513151</v>
+        <v>0.0008900852218614343</v>
       </c>
       <c r="D98">
-        <v>0.46999221530834528</v>
+        <v>0.4699922153083453</v>
       </c>
       <c r="E98">
-        <v>6.7477810650887569E-3</v>
+        <v>0.1476735730151315</v>
       </c>
       <c r="F98">
-        <v>-1.720655949031306</v>
+        <v>0.04131732677454206</v>
       </c>
       <c r="G98">
-        <v>0.68419218464746923</v>
+        <v>0.3405904315773458</v>
       </c>
       <c r="H98">
-        <v>8.2547495979041173E-4</v>
+        <v>-0.001221441002475643</v>
       </c>
       <c r="I98">
-        <v>5.8877929951588033E-2</v>
+        <v>0.05887792995158803</v>
       </c>
       <c r="J98">
-        <v>6.4530641129111055E-4</v>
+        <v>0.6841921846474692</v>
       </c>
       <c r="K98">
-        <v>0.3438780291150883</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0008254749597904117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>4.2358743064393772E-2</v>
+        <v>0.006422781065088755</v>
       </c>
       <c r="C99">
+        <v>-0.002087308629560716</v>
+      </c>
+      <c r="D99">
+        <v>0.4725160706026936</v>
+      </c>
+      <c r="E99">
         <v>0.1151750751477119</v>
       </c>
-      <c r="D99">
-        <v>0.47251607060269363</v>
-      </c>
-      <c r="E99">
-        <v>6.4227810650887554E-3</v>
-      </c>
       <c r="F99">
-        <v>-1.7231460507756391</v>
+        <v>0.04235874306439377</v>
       </c>
       <c r="G99">
-        <v>0.69605641468854529</v>
+        <v>0.3479186203228147</v>
       </c>
       <c r="H99">
-        <v>1.822801306255733E-3</v>
+        <v>-0.003711542746808483</v>
       </c>
       <c r="I99">
-        <v>5.8171481768574562E-2</v>
+        <v>0.05817148176857456</v>
       </c>
       <c r="J99">
-        <v>-1.8113219118664071E-3</v>
+        <v>0.6960564146885453</v>
       </c>
       <c r="K99">
-        <v>0.35212915285915808</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001822801306255733</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>5.7194836698135007E-2</v>
+        <v>0.005006114398422095</v>
       </c>
       <c r="C100">
-        <v>0.10217370279844309</v>
+        <v>-0.00396027877198676</v>
       </c>
       <c r="D100">
-        <v>0.47970808953802901</v>
+        <v>0.479708089538029</v>
       </c>
       <c r="E100">
-        <v>5.0061143984220947E-3</v>
+        <v>0.1021737027984431</v>
       </c>
       <c r="F100">
-        <v>-1.72150742036256</v>
+        <v>0.05719483669813501</v>
       </c>
       <c r="G100">
-        <v>0.72211603444008343</v>
+        <v>0.3410771631571818</v>
       </c>
       <c r="H100">
-        <v>-2.28959762009145E-3</v>
+        <v>-0.002072912333729604</v>
       </c>
       <c r="I100">
-        <v>5.5019937887255572E-2</v>
+        <v>0.05501993788725557</v>
       </c>
       <c r="J100">
-        <v>-4.2008551707927314E-3</v>
+        <v>0.7221160344400834</v>
       </c>
       <c r="K100">
-        <v>0.34528769569352519</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00228959762009145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>5.9830625053723691E-2</v>
+        <v>0.004531114398422091</v>
       </c>
       <c r="C101">
-        <v>7.8464295248884319E-2</v>
+        <v>0.0005556570678717822</v>
       </c>
       <c r="D101">
-        <v>0.48206561043635082</v>
+        <v>0.4820656104363508</v>
       </c>
       <c r="E101">
-        <v>4.5311143984220906E-3</v>
+        <v>0.07846429524888432</v>
       </c>
       <c r="F101">
-        <v>-1.7199140708136771</v>
+        <v>0.05983062505372369</v>
       </c>
       <c r="G101">
-        <v>0.70507025264802614</v>
+        <v>0.3306487270765237</v>
       </c>
       <c r="H101">
-        <v>-4.1522234726310506E-3</v>
+        <v>-0.0004795627848471432</v>
       </c>
       <c r="I101">
-        <v>5.2667494750584957E-2</v>
+        <v>0.05266749475058496</v>
       </c>
       <c r="J101">
-        <v>1.0805738900249019E-3</v>
+        <v>0.7050702526480261</v>
       </c>
       <c r="K101">
-        <v>0.33558759176450997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004152223472631051</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>6.6584921828301363E-2</v>
+        <v>0.00479778106508876</v>
       </c>
       <c r="C102">
-        <v>8.079862975393759E-2</v>
+        <v>0.001670497667754654</v>
       </c>
       <c r="D102">
         <v>0.4821430080649427</v>
       </c>
       <c r="E102">
-        <v>4.79778106508876E-3</v>
+        <v>0.08079862975393759</v>
       </c>
       <c r="F102">
-        <v>-1.718703697371702</v>
+        <v>0.06658492182830136</v>
       </c>
       <c r="G102">
-        <v>0.71023895954703953</v>
+        <v>0.3411666610400989</v>
       </c>
       <c r="H102">
-        <v>1.9734752638659921E-3</v>
+        <v>0.0007308106571283553</v>
       </c>
       <c r="I102">
-        <v>4.9424425394723581E-2</v>
+        <v>0.04942442539472358</v>
       </c>
       <c r="J102">
-        <v>1.682875391537317E-3</v>
+        <v>0.7102389595470395</v>
       </c>
       <c r="K102">
-        <v>0.34555543081067241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.001973475263865992</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B103">
-        <v>3.4971620750859148E-2</v>
+        <v>0.004764447731755427</v>
       </c>
       <c r="C103">
-        <v>3.9301544176389307E-2</v>
+        <v>-0.007914332795264403</v>
       </c>
       <c r="D103">
-        <v>0.48337790483061438</v>
+        <v>0.4833779048306144</v>
       </c>
       <c r="E103">
-        <v>4.7644477317554269E-3</v>
+        <v>0.03930154417638931</v>
       </c>
       <c r="F103">
-        <v>-1.721139009797626</v>
+        <v>0.03497162075085915</v>
       </c>
       <c r="G103">
-        <v>0.69076564990631439</v>
+        <v>0.3189974549785513</v>
       </c>
       <c r="H103">
-        <v>2.2853594995612728E-3</v>
+        <v>-0.001704501768796074</v>
       </c>
       <c r="I103">
-        <v>5.2509653220536912E-2</v>
+        <v>0.05250965322053691</v>
       </c>
       <c r="J103">
-        <v>-8.1486351281462449E-3</v>
+        <v>0.6907656499063144</v>
       </c>
       <c r="K103">
-        <v>0.32374838201602191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002285359499561273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B104">
-        <v>1.6244432693710752E-2</v>
+        <v>0.004089447731755425</v>
       </c>
       <c r="C104">
-        <v>-2.1384546245480252E-2</v>
+        <v>-0.006683972899391679</v>
       </c>
       <c r="D104">
-        <v>0.48516892721879928</v>
+        <v>0.4851689272187993</v>
       </c>
       <c r="E104">
-        <v>4.0894477317554249E-3</v>
+        <v>-0.02138454624548025</v>
       </c>
       <c r="F104">
-        <v>-1.722204613164602</v>
+        <v>0.01624443269371075</v>
       </c>
       <c r="G104">
-        <v>0.69467350027724084</v>
+        <v>0.3245770372743639</v>
       </c>
       <c r="H104">
-        <v>-3.9912268828162269E-4</v>
+        <v>-0.002770105135772106</v>
       </c>
       <c r="I104">
-        <v>4.7189429174644637E-2</v>
+        <v>0.04718942917464464</v>
       </c>
       <c r="J104">
-        <v>-6.6683689458296863E-3</v>
+        <v>0.6946735002772408</v>
       </c>
       <c r="K104">
-        <v>0.3289651739315898</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0003991226882816227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B105">
-        <v>-1.241102750402576E-2</v>
+        <v>0.002872781065088757</v>
       </c>
       <c r="C105">
-        <v>-8.0989377624669956E-2</v>
+        <v>-0.005963436417209169</v>
       </c>
       <c r="D105">
-        <v>0.47527024353621972</v>
+        <v>0.4752702435362197</v>
       </c>
       <c r="E105">
-        <v>2.8727810650887569E-3</v>
+        <v>-0.08098937762466996</v>
       </c>
       <c r="F105">
-        <v>-1.723566846684381</v>
+        <v>-0.01241102750402576</v>
       </c>
       <c r="G105">
-        <v>0.67269079071165372</v>
+        <v>0.3051231327348425</v>
       </c>
       <c r="H105">
-        <v>-3.9153845860889248E-4</v>
+        <v>-0.004132338655551038</v>
       </c>
       <c r="I105">
-        <v>3.6200182774951628E-2</v>
+        <v>0.03620018277495163</v>
       </c>
       <c r="J105">
-        <v>-5.9478324636471763E-3</v>
+        <v>0.6726907907116537</v>
       </c>
       <c r="K105">
-        <v>0.30969266724955241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0003915384586088925</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B106">
-        <v>-5.4433904849193901E-2</v>
+        <v>0.0004561143984220927</v>
       </c>
       <c r="C106">
-        <v>-0.1446105686394317</v>
+        <v>-0.003049104545053995</v>
       </c>
       <c r="D106">
         <v>0.4688834038545262</v>
       </c>
       <c r="E106">
-        <v>4.5611439842209271E-4</v>
+        <v>-0.1446105686394317</v>
       </c>
       <c r="F106">
-        <v>-1.724258746622831</v>
+        <v>-0.0544339048491939</v>
       </c>
       <c r="G106">
-        <v>0.64444347417473669</v>
+        <v>0.2974805852376712</v>
       </c>
       <c r="H106">
-        <v>2.095725939262166E-3</v>
+        <v>-0.00482423859400124</v>
       </c>
       <c r="I106">
-        <v>2.6264629932253761E-2</v>
+        <v>0.02626462993225376</v>
       </c>
       <c r="J106">
-        <v>-3.0335005914920031E-3</v>
+        <v>0.6444434741747367</v>
       </c>
       <c r="K106">
-        <v>0.30079626312817093</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.002095725939262166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B107">
-        <v>-7.6575025973539879E-2</v>
+        <v>-0.0007022189349112414</v>
       </c>
       <c r="C107">
+        <v>-0.009935310742481742</v>
+      </c>
+      <c r="D107">
+        <v>0.4755600843026522</v>
+      </c>
+      <c r="E107">
         <v>-0.1233120589877794</v>
       </c>
-      <c r="D107">
-        <v>0.47556008430265218</v>
-      </c>
-      <c r="E107">
-        <v>-7.0221893491124142E-4</v>
-      </c>
       <c r="F107">
-        <v>-1.72143504256608</v>
+        <v>-0.07657502597353988</v>
       </c>
       <c r="G107">
-        <v>0.63292022706967277</v>
+        <v>0.3115134544910585</v>
       </c>
       <c r="H107">
-        <v>-3.677036365615166E-3</v>
+        <v>-0.002000534537249432</v>
       </c>
       <c r="I107">
-        <v>2.412983155609005E-2</v>
+        <v>0.02412983155609005</v>
       </c>
       <c r="J107">
-        <v>-9.6752976468009871E-3</v>
+        <v>0.6329202270696728</v>
       </c>
       <c r="K107">
-        <v>0.31625016436129938</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003677036365615166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B108">
-        <v>-9.3750943790871122E-2</v>
+        <v>-0.001160552268244576</v>
       </c>
       <c r="C108">
-        <v>-8.5035320864273345E-2</v>
+        <v>-0.0101809749365411</v>
       </c>
       <c r="D108">
-        <v>0.47744231897132972</v>
+        <v>0.4774423189713297</v>
       </c>
       <c r="E108">
-        <v>-1.1605522682445761E-3</v>
+        <v>-0.08503532086427334</v>
       </c>
       <c r="F108">
-        <v>-1.723727177100872</v>
+        <v>-0.09375094379087112</v>
       </c>
       <c r="G108">
-        <v>0.62088238907008542</v>
+        <v>0.3125069212551442</v>
       </c>
       <c r="H108">
-        <v>-1.3908415810553411E-3</v>
+        <v>-0.004292669072042255</v>
       </c>
       <c r="I108">
-        <v>3.0488786189137421E-2</v>
+        <v>0.03048878618913742</v>
       </c>
       <c r="J108">
-        <v>-1.040978012509787E-2</v>
+        <v>0.6208823890700854</v>
       </c>
       <c r="K108">
-        <v>0.31654352562338228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001390841581055341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B109">
-        <v>-0.1074436795974745</v>
+        <v>-0.00325221893491124</v>
       </c>
       <c r="C109">
-        <v>-6.6271754982643927E-2</v>
+        <v>-0.00896286273087751</v>
       </c>
       <c r="D109">
         <v>0.4738011692905939</v>
       </c>
       <c r="E109">
-        <v>-3.2522189349112399E-3</v>
+        <v>-0.06627175498264393</v>
       </c>
       <c r="F109">
-        <v>-1.7256580523870091</v>
+        <v>-0.1074436795974745</v>
       </c>
       <c r="G109">
-        <v>0.61274409233991456</v>
+        <v>0.2863975319179641</v>
       </c>
       <c r="H109">
-        <v>-5.8898563522041206E-3</v>
+        <v>-0.006223544358178479</v>
       </c>
       <c r="I109">
-        <v>3.0160060730525021E-2</v>
+        <v>0.03016006073052502</v>
       </c>
       <c r="J109">
-        <v>-8.9472587773155171E-3</v>
+        <v>0.6127440923399146</v>
       </c>
       <c r="K109">
-        <v>0.29025212923075971</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005889856352204121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B110">
-        <v>-0.11749528219090009</v>
+        <v>-0.004868885601577907</v>
       </c>
       <c r="C110">
-        <v>-1.8627109692543439E-2</v>
+        <v>-0.007267197801346294</v>
       </c>
       <c r="D110">
-        <v>0.48792934690206557</v>
+        <v>0.4879293469020656</v>
       </c>
       <c r="E110">
-        <v>-4.8688856015779072E-3</v>
+        <v>-0.01862710969254344</v>
       </c>
       <c r="F110">
-        <v>-1.725058499824579</v>
+        <v>-0.1174952821909001</v>
       </c>
       <c r="G110">
-        <v>0.60621529359959503</v>
+        <v>0.2887884743545167</v>
       </c>
       <c r="H110">
-        <v>-4.4297689127850651E-3</v>
+        <v>-0.005623991795749095</v>
       </c>
       <c r="I110">
-        <v>2.9259088688337261E-2</v>
+        <v>0.02925908868833726</v>
       </c>
       <c r="J110">
-        <v>-7.4943417552754271E-3</v>
+        <v>0.606215293599595</v>
       </c>
       <c r="K110">
-        <v>0.29299900689086011</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004429768912785065</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B111">
-        <v>-0.12057940396930079</v>
+        <v>-0.005402218934911241</v>
       </c>
       <c r="C111">
-        <v>1.657888646059558E-2</v>
+        <v>-0.005832653682355384</v>
       </c>
       <c r="D111">
-        <v>0.49143037912031812</v>
+        <v>0.4914303791203181</v>
       </c>
       <c r="E111">
-        <v>-5.4022189349112407E-3</v>
+        <v>0.01657888646059558</v>
       </c>
       <c r="F111">
-        <v>-1.7241588581581879</v>
+        <v>-0.1205794039693008</v>
       </c>
       <c r="G111">
+        <v>0.2849711006897684</v>
+      </c>
+      <c r="H111">
+        <v>-0.004724350129357536</v>
+      </c>
+      <c r="I111">
+        <v>0.03491439982076372</v>
+      </c>
+      <c r="J111">
         <v>0.642877226674476</v>
       </c>
-      <c r="H111">
-        <v>-5.3136811209766816E-3</v>
-      </c>
-      <c r="I111">
-        <v>3.491439982076372E-2</v>
-      </c>
-      <c r="J111">
-        <v>-5.3329016994298067E-3</v>
-      </c>
       <c r="K111">
-        <v>0.28847466960529189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005313681120976682</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B112">
-        <v>-0.13611713005971621</v>
+        <v>-0.006893885601577907</v>
       </c>
       <c r="C112">
-        <v>1.6492503000048231E-2</v>
+        <v>-0.0121244369443538</v>
       </c>
       <c r="D112">
-        <v>0.49864872105435287</v>
+        <v>0.4986487210543529</v>
       </c>
       <c r="E112">
-        <v>-6.8938856015779071E-3</v>
+        <v>0.01649250300004823</v>
       </c>
       <c r="F112">
-        <v>-1.7245096219250859</v>
+        <v>-0.1361171300597162</v>
       </c>
       <c r="G112">
-        <v>0.66028343784318988</v>
+        <v>0.2825040556355597</v>
       </c>
       <c r="H112">
-        <v>-4.8987842069463886E-3</v>
+        <v>-0.005075113896255779</v>
       </c>
       <c r="I112">
-        <v>3.3250741843663167E-2</v>
+        <v>0.03325074184366317</v>
       </c>
       <c r="J112">
-        <v>-1.2591924956740899E-2</v>
+        <v>0.6602834378431899</v>
       </c>
       <c r="K112">
-        <v>0.28706725966206859</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004898784206946389</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B113">
+        <v>-0.00692721893491124</v>
+      </c>
+      <c r="C113">
+        <v>-0.00537510464622112</v>
+      </c>
+      <c r="D113">
+        <v>0.5071481560908828</v>
+      </c>
+      <c r="E113">
+        <v>0.0466211435614321</v>
+      </c>
+      <c r="F113">
         <v>-0.1362334416691145</v>
       </c>
-      <c r="C113">
-        <v>4.6621143561432099E-2</v>
-      </c>
-      <c r="D113">
-        <v>0.50714815609088282</v>
-      </c>
-      <c r="E113">
-        <v>-6.9272189349112402E-3</v>
-      </c>
-      <c r="F113">
-        <v>-1.7248541695433239</v>
-      </c>
       <c r="G113">
-        <v>0.68703756376406133</v>
+        <v>0.3029601796905811</v>
       </c>
       <c r="H113">
-        <v>-3.4760348370604321E-3</v>
+        <v>-0.005419661514494212</v>
       </c>
       <c r="I113">
-        <v>3.5431527544631969E-2</v>
+        <v>0.03543152754463197</v>
       </c>
       <c r="J113">
-        <v>-5.3581068192211229E-3</v>
+        <v>0.6870375637640613</v>
       </c>
       <c r="K113">
-        <v>0.307857761377963</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003476034837060432</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B114">
+        <v>-0.007202218934911242</v>
+      </c>
+      <c r="C114">
+        <v>-0.006364380259314042</v>
+      </c>
+      <c r="D114">
+        <v>0.5081857621501342</v>
+      </c>
+      <c r="E114">
+        <v>0.04878888589643005</v>
+      </c>
+      <c r="F114">
         <v>-0.1187455380303678</v>
       </c>
-      <c r="C114">
-        <v>4.8788885896430052E-2</v>
-      </c>
-      <c r="D114">
-        <v>0.50818576215013422</v>
-      </c>
-      <c r="E114">
-        <v>-7.202218934911242E-3</v>
-      </c>
-      <c r="F114">
-        <v>-1.7230610559337061</v>
-      </c>
       <c r="G114">
-        <v>0.69043127490231182</v>
+        <v>0.2904231252100836</v>
       </c>
       <c r="H114">
-        <v>-1.7619704636687109E-3</v>
+        <v>-0.003626547904875455</v>
       </c>
       <c r="I114">
-        <v>4.1564738933105083E-2</v>
+        <v>0.04156473893310508</v>
       </c>
       <c r="J114">
-        <v>-6.1084783351134236E-3</v>
+        <v>0.6904312749023118</v>
       </c>
       <c r="K114">
-        <v>0.29411538875322502</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001761970463668711</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B115">
-        <v>-9.9202206610112975E-2</v>
+        <v>-0.007185552268244574</v>
       </c>
       <c r="C115">
-        <v>5.7969269017905667E-2</v>
+        <v>-0.006149298277774853</v>
       </c>
       <c r="D115">
-        <v>0.51470599118612848</v>
+        <v>0.5147059911861285</v>
       </c>
       <c r="E115">
-        <v>-7.1855522682445737E-3</v>
+        <v>0.05796926901790567</v>
       </c>
       <c r="F115">
-        <v>-1.7255372854403159</v>
+        <v>-0.09920220661011298</v>
       </c>
       <c r="G115">
-        <v>0.71450667331428885</v>
+        <v>0.319937662883043</v>
       </c>
       <c r="H115">
-        <v>-4.686471916230112E-3</v>
+        <v>-0.006102777411486205</v>
       </c>
       <c r="I115">
-        <v>4.9261563337987813E-2</v>
+        <v>0.04926156333798781</v>
       </c>
       <c r="J115">
-        <v>-6.13369432421286E-3</v>
+        <v>0.7145066733142889</v>
       </c>
       <c r="K115">
-        <v>0.32414819541938622</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004686471916230112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B116">
-        <v>-8.3771591735136208E-2</v>
+        <v>-0.007093885601577906</v>
       </c>
       <c r="C116">
-        <v>8.9342156619469648E-2</v>
+        <v>-0.008544493935295185</v>
       </c>
       <c r="D116">
-        <v>0.52293159102577658</v>
+        <v>0.5229315910257766</v>
       </c>
       <c r="E116">
-        <v>-7.0938856015779058E-3</v>
+        <v>0.08934215661946965</v>
       </c>
       <c r="F116">
-        <v>-1.7249617127032399</v>
+        <v>-0.08377159173513621</v>
       </c>
       <c r="G116">
-        <v>0.72283887285711046</v>
+        <v>0.3125981470455133</v>
       </c>
       <c r="H116">
-        <v>-5.1360236710423172E-3</v>
+        <v>-0.005527204674409781</v>
       </c>
       <c r="I116">
-        <v>5.2445739668431468E-2</v>
+        <v>0.05244573966843147</v>
       </c>
       <c r="J116">
-        <v>-8.2916139099115244E-3</v>
+        <v>0.7228388728571105</v>
       </c>
       <c r="K116">
-        <v>0.31647361507880573</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005136023671042317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B117">
-        <v>-6.9040100271803934E-2</v>
+        <v>-0.00695221893491124</v>
       </c>
       <c r="C117">
+        <v>-0.006187240572292221</v>
+      </c>
+      <c r="D117">
+        <v>0.5289678927874188</v>
+      </c>
+      <c r="E117">
         <v>0.1357277710454117</v>
       </c>
-      <c r="D117">
-        <v>0.52896789278741885</v>
-      </c>
-      <c r="E117">
-        <v>-6.95221893491124E-3</v>
-      </c>
       <c r="F117">
-        <v>-1.723798233224791</v>
+        <v>-0.06904010027180393</v>
       </c>
       <c r="G117">
-        <v>0.76103222444638874</v>
+        <v>0.306962033383801</v>
       </c>
       <c r="H117">
-        <v>-5.1713874512638262E-3</v>
+        <v>-0.004363725195960367</v>
       </c>
       <c r="I117">
-        <v>5.9207508904728368E-2</v>
+        <v>0.05920750890472837</v>
       </c>
       <c r="J117">
-        <v>-6.1728130554098573E-3</v>
+        <v>0.7610322244463887</v>
       </c>
       <c r="K117">
-        <v>0.31050119966464862</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005171387451263826</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B118">
-        <v>-6.923134970234518E-2</v>
+        <v>-0.006493885601577907</v>
       </c>
       <c r="C118">
-        <v>0.15277503207118581</v>
+        <v>-0.00574201492704304</v>
       </c>
       <c r="D118">
-        <v>0.53762580225447421</v>
+        <v>0.5376258022544742</v>
       </c>
       <c r="E118">
-        <v>-6.4938856015779069E-3</v>
+        <v>0.1527750320711858</v>
       </c>
       <c r="F118">
-        <v>-1.7232520127296751</v>
+        <v>-0.06923134970234518</v>
       </c>
       <c r="G118">
-        <v>0.76862224261238321</v>
+        <v>0.3487241043982338</v>
       </c>
       <c r="H118">
-        <v>-4.9834244960794086E-3</v>
+        <v>-0.003817504700844488</v>
       </c>
       <c r="I118">
-        <v>6.4148037397517399E-2</v>
+        <v>0.0641480373975174</v>
       </c>
       <c r="J118">
-        <v>-6.1973902338955528E-3</v>
+        <v>0.7686222426123832</v>
       </c>
       <c r="K118">
-        <v>0.35373559813078193</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004983424496079409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B119">
-        <v>-3.2680770515141351E-2</v>
+        <v>-0.004635552268244574</v>
       </c>
       <c r="C119">
-        <v>0.1837179406845664</v>
+        <v>-0.004137395997099804</v>
       </c>
       <c r="D119">
         <v>0.542577175097541</v>
       </c>
       <c r="E119">
-        <v>-4.6355522682445744E-3</v>
+        <v>0.1837179406845664</v>
       </c>
       <c r="F119">
-        <v>-1.7256655058790811</v>
+        <v>-0.03268077051514135</v>
       </c>
       <c r="G119">
-        <v>0.78632114399553998</v>
+        <v>0.352342840720103</v>
       </c>
       <c r="H119">
-        <v>-4.7689027765809803E-3</v>
+        <v>-0.006230997850250908</v>
       </c>
       <c r="I119">
-        <v>8.1009937851594938E-2</v>
+        <v>0.08100993785159494</v>
       </c>
       <c r="J119">
-        <v>-4.1201485709260327E-3</v>
+        <v>0.78632114399554</v>
       </c>
       <c r="K119">
-        <v>0.35607631194502132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00476890277658098</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B120">
-        <v>-2.2462428459459841E-2</v>
+        <v>-0.003410552268244575</v>
       </c>
       <c r="C120">
+        <v>-0.002566536678971078</v>
+      </c>
+      <c r="D120">
+        <v>0.5470313137882221</v>
+      </c>
+      <c r="E120">
         <v>0.1704641849324533</v>
       </c>
-      <c r="D120">
-        <v>0.54703131378822212</v>
-      </c>
-      <c r="E120">
-        <v>-3.4105522682445748E-3</v>
-      </c>
       <c r="F120">
-        <v>-1.724516630051008</v>
+        <v>-0.02246242845945984</v>
       </c>
       <c r="G120">
-        <v>0.80216112410481522</v>
+        <v>0.3476634116574649</v>
       </c>
       <c r="H120">
-        <v>-1.277019882313596E-3</v>
+        <v>-0.005082122022177582</v>
       </c>
       <c r="I120">
-        <v>8.5230062466698175E-2</v>
+        <v>0.08523006246669818</v>
       </c>
       <c r="J120">
-        <v>-2.0865094257239841E-3</v>
+        <v>0.8021611241048152</v>
       </c>
       <c r="K120">
-        <v>0.3520324102427892</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001277019882313596</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B121">
-        <v>-1.232774556495604E-2</v>
+        <v>-0.001402218934911241</v>
       </c>
       <c r="C121">
+        <v>-0.00332772042189974</v>
+      </c>
+      <c r="D121">
+        <v>0.5541865726983382</v>
+      </c>
+      <c r="E121">
         <v>0.1547842792926879</v>
       </c>
-      <c r="D121">
-        <v>0.55418657269833815</v>
-      </c>
-      <c r="E121">
-        <v>-1.4022189349112411E-3</v>
-      </c>
       <c r="F121">
-        <v>-1.7228068354507231</v>
+        <v>-0.01232774556495604</v>
       </c>
       <c r="G121">
-        <v>0.84264033171445885</v>
+        <v>0.3487743762976653</v>
       </c>
       <c r="H121">
-        <v>-5.4989275299118182E-3</v>
+        <v>-0.00337232742189294</v>
       </c>
       <c r="I121">
-        <v>9.2630541266176536E-2</v>
+        <v>0.09263054126617654</v>
       </c>
       <c r="J121">
-        <v>-3.5433036153621621E-3</v>
+        <v>0.8426403317144588</v>
       </c>
       <c r="K121">
-        <v>0.35361562471742097</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005498927529911818</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B122">
-        <v>-1.7124603443708399E-2</v>
+        <v>-0.0002605522682445731</v>
       </c>
       <c r="C122">
-        <v>0.13075067242356031</v>
+        <v>-0.01138769002814019</v>
       </c>
       <c r="D122">
-        <v>0.55435498794960347</v>
+        <v>0.5543549879496035</v>
       </c>
       <c r="E122">
-        <v>-2.6055226824457309E-4</v>
+        <v>0.1307506724235603</v>
       </c>
       <c r="F122">
-        <v>-1.724602689599487</v>
+        <v>-0.0171246034437084</v>
       </c>
       <c r="G122">
-        <v>0.88123107251644672</v>
+        <v>0.348726478271386</v>
       </c>
       <c r="H122">
-        <v>-4.3624556245083724E-3</v>
+        <v>-0.005168181570657094</v>
       </c>
       <c r="I122">
-        <v>9.5568964891750152E-2</v>
+        <v>0.09556896489175015</v>
       </c>
       <c r="J122">
-        <v>-1.114264934075084E-2</v>
+        <v>0.8812310725164467</v>
       </c>
       <c r="K122">
-        <v>0.35309398435800832</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004362455624508372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B123">
-        <v>-1.9235510231089901E-2</v>
+        <v>-0.0006105522682445744</v>
       </c>
       <c r="C123">
-        <v>9.6239517112957529E-2</v>
+        <v>0.0007031996420135168</v>
       </c>
       <c r="D123">
-        <v>0.56049887753946326</v>
+        <v>0.5604988775394633</v>
       </c>
       <c r="E123">
-        <v>-6.1055226824457444E-4</v>
+        <v>0.09623951711295753</v>
       </c>
       <c r="F123">
-        <v>-1.724352111186648</v>
+        <v>-0.0192355102310899</v>
       </c>
       <c r="G123">
-        <v>0.88616500472104054</v>
+        <v>0.3529054844394781</v>
       </c>
       <c r="H123">
-        <v>-5.4914128360180007E-3</v>
+        <v>-0.00491760315781783</v>
       </c>
       <c r="I123">
-        <v>8.6086017741508147E-2</v>
+        <v>0.08608601774150815</v>
       </c>
       <c r="J123">
-        <v>4.8936686174815003E-4</v>
+        <v>0.8861650047210405</v>
       </c>
       <c r="K123">
-        <v>0.35696024160359269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005491412836018001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B124">
-        <v>-3.679654805896711E-3</v>
+        <v>-0.001185552268244574</v>
       </c>
       <c r="C124">
-        <v>0.12439166641220729</v>
+        <v>-0.00573083155894746</v>
       </c>
       <c r="D124">
-        <v>0.56660768991958221</v>
+        <v>0.5666076899195822</v>
       </c>
       <c r="E124">
-        <v>-1.185552268244574E-3</v>
+        <v>0.1243916664122073</v>
       </c>
       <c r="F124">
-        <v>-1.722109645985693</v>
+        <v>-0.003679654805896711</v>
       </c>
       <c r="G124">
-        <v>0.89030067573954774</v>
+        <v>0.3575839338028726</v>
       </c>
       <c r="H124">
-        <v>-6.0515133381802647E-3</v>
+        <v>-0.002675137956862439</v>
       </c>
       <c r="I124">
-        <v>8.657869353772174E-2</v>
+        <v>0.08657869353772174</v>
       </c>
       <c r="J124">
-        <v>-5.7152276053859113E-3</v>
+        <v>0.8903006757395477</v>
       </c>
       <c r="K124">
-        <v>0.3614852995412674</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.006051513338180265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B125">
-        <v>6.7664062469876621E-3</v>
+        <v>-0.001452218934911239</v>
       </c>
       <c r="C125">
-        <v>0.14402803473952819</v>
+        <v>-0.008455548946427718</v>
       </c>
       <c r="D125">
-        <v>0.57067541858649928</v>
+        <v>0.5706754185864993</v>
       </c>
       <c r="E125">
-        <v>-1.452218934911239E-3</v>
+        <v>0.1440280347395282</v>
       </c>
       <c r="F125">
-        <v>-1.723313643669508</v>
+        <v>0.006766406246987662</v>
       </c>
       <c r="G125">
-        <v>0.90756021904349726</v>
+        <v>0.3383633310679882</v>
       </c>
       <c r="H125">
-        <v>-7.0581832116181579E-3</v>
+        <v>-0.003879135640677401</v>
       </c>
       <c r="I125">
-        <v>8.7324024661580957E-2</v>
+        <v>0.08732402466158096</v>
       </c>
       <c r="J125">
-        <v>-8.4399449928652809E-3</v>
+        <v>0.9075602190434973</v>
       </c>
       <c r="K125">
-        <v>0.34257386360433162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.007058183211618158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B126">
-        <v>8.5914754064049387E-3</v>
+        <v>-0.002277218934911241</v>
       </c>
       <c r="C126">
+        <v>-0.004209889577489547</v>
+      </c>
+      <c r="D126">
+        <v>0.577334845339001</v>
+      </c>
+      <c r="E126">
         <v>0.1678346697061146</v>
       </c>
-      <c r="D126">
-        <v>0.57733484533900103</v>
-      </c>
-      <c r="E126">
-        <v>-2.277218934911241E-3</v>
-      </c>
       <c r="F126">
-        <v>-1.7230869608980319</v>
+        <v>0.008591475406404939</v>
       </c>
       <c r="G126">
-        <v>0.92981607468270244</v>
+        <v>0.3698866436252126</v>
       </c>
       <c r="H126">
-        <v>-5.1293961805641223E-3</v>
+        <v>-0.003652452869201983</v>
       </c>
       <c r="I126">
-        <v>7.8544211842115352E-2</v>
+        <v>0.07854421184211535</v>
       </c>
       <c r="J126">
-        <v>-4.4176744330769596E-3</v>
+        <v>0.9298160746827024</v>
       </c>
       <c r="K126">
-        <v>0.37455230777830267</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005129396180564122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B127">
-        <v>2.982740539037931E-2</v>
+        <v>-0.002052218934911242</v>
       </c>
       <c r="C127">
+        <v>-0.004701590543088243</v>
+      </c>
+      <c r="D127">
+        <v>0.5856412066066614</v>
+      </c>
+      <c r="E127">
         <v>0.2067545453150226</v>
       </c>
-      <c r="D127">
-        <v>0.58564120660666141</v>
-      </c>
-      <c r="E127">
-        <v>-2.0522189349112419E-3</v>
-      </c>
       <c r="F127">
-        <v>-1.720917866570949</v>
+        <v>0.02982740539037931</v>
       </c>
       <c r="G127">
-        <v>0.95562395360344432</v>
+        <v>0.3633844554593885</v>
       </c>
       <c r="H127">
-        <v>-5.6683826377970604E-3</v>
+        <v>-0.001483358542118641</v>
       </c>
       <c r="I127">
-        <v>9.7574382969660256E-2</v>
+        <v>0.09757438296966026</v>
       </c>
       <c r="J127">
-        <v>-4.4625977803772893E-3</v>
+        <v>0.9556239536034443</v>
       </c>
       <c r="K127">
-        <v>0.36713826270804822</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00566838263779706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B128">
-        <v>4.3552424810446307E-2</v>
+        <v>-0.001860552268244574</v>
       </c>
       <c r="C128">
-        <v>0.20106300454247439</v>
+        <v>-0.0007817389517208138</v>
       </c>
       <c r="D128">
-        <v>0.58915857317152298</v>
+        <v>0.589158573171523</v>
       </c>
       <c r="E128">
-        <v>-1.860552268244574E-3</v>
+        <v>0.2010630045424744</v>
       </c>
       <c r="F128">
-        <v>-1.722114478877562</v>
+        <v>0.04355242481044631</v>
       </c>
       <c r="G128">
-        <v>0.98553079414197331</v>
+        <v>0.3806092853192574</v>
       </c>
       <c r="H128">
-        <v>-5.2707661585218949E-3</v>
+        <v>-0.00267997084873225</v>
       </c>
       <c r="I128">
         <v>0.1043952876797776</v>
       </c>
       <c r="J128">
-        <v>-5.4652370925535598E-4</v>
+        <v>0.9855307941419733</v>
       </c>
       <c r="K128">
-        <v>0.38496883804811249</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005270766158521895</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B129">
-        <v>5.8618978776329253E-2</v>
+        <v>-0.002160552268244574</v>
       </c>
       <c r="C129">
-        <v>0.18787913808899859</v>
+        <v>-0.005682388116582806</v>
       </c>
       <c r="D129">
-        <v>0.59442371658260118</v>
+        <v>0.5944237165826012</v>
       </c>
       <c r="E129">
-        <v>-2.1605522682445742E-3</v>
+        <v>0.1878791380889986</v>
       </c>
       <c r="F129">
-        <v>-1.721641044531756</v>
+        <v>0.05861897877632925</v>
       </c>
       <c r="G129">
-        <v>1.0090632059785929</v>
+        <v>0.3532010691941534</v>
       </c>
       <c r="H129">
-        <v>-4.3311866882130238E-3</v>
+        <v>-0.002206536502926315</v>
       </c>
       <c r="I129">
-        <v>0.10763837286933781</v>
+        <v>0.1076383728693378</v>
       </c>
       <c r="J129">
-        <v>-5.8863954519238343E-3</v>
+        <v>1.009063205978593</v>
       </c>
       <c r="K129">
-        <v>0.3578688142660848</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004331186688213024</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B130">
-        <v>5.1446826437322471E-2</v>
+        <v>-0.001952218934911241</v>
       </c>
       <c r="C130">
-        <v>0.1866313647910518</v>
+        <v>0.002509385434350784</v>
       </c>
       <c r="D130">
         <v>0.6005316944554524</v>
       </c>
       <c r="E130">
-        <v>-1.952218934911241E-3</v>
+        <v>0.1866313647910518</v>
       </c>
       <c r="F130">
-        <v>-1.720640047590132</v>
+        <v>0.05144682643732247</v>
       </c>
       <c r="G130">
-        <v>1.0294984673878751</v>
+        <v>0.3623186025775221</v>
       </c>
       <c r="H130">
-        <v>-3.119706572793085E-3</v>
+        <v>-0.001205539561301617</v>
       </c>
       <c r="I130">
         <v>0.110588138763438</v>
       </c>
       <c r="J130">
-        <v>2.5249893879132211E-3</v>
+        <v>1.029498467387875</v>
       </c>
       <c r="K130">
-        <v>0.3665291351138657</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003119706572793085</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B131">
-        <v>7.641229783143641E-2</v>
+        <v>-0.001985552268244574</v>
       </c>
       <c r="C131">
+        <v>-0.004714932033380328</v>
+      </c>
+      <c r="D131">
+        <v>0.60300093635355</v>
+      </c>
+      <c r="E131">
         <v>0.196912930941715</v>
       </c>
-      <c r="D131">
-        <v>0.60300093635355001</v>
-      </c>
-      <c r="E131">
-        <v>-1.9855522682445739E-3</v>
-      </c>
       <c r="F131">
-        <v>-1.7226160825585539</v>
+        <v>0.07641229783143641</v>
       </c>
       <c r="G131">
-        <v>1.0517969332754371</v>
+        <v>0.3765463185019892</v>
       </c>
       <c r="H131">
-        <v>-5.5011533101856861E-3</v>
+        <v>-0.003181574529723974</v>
       </c>
       <c r="I131">
         <v>0.1176141933419603</v>
       </c>
       <c r="J131">
-        <v>-4.6993280798187792E-3</v>
+        <v>1.051796933275437</v>
       </c>
       <c r="K131">
-        <v>0.38031427524000427</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005501153310185686</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B132">
-        <v>8.1962340854033186E-2</v>
+        <v>-0.001985552268244574</v>
       </c>
       <c r="C132">
-        <v>0.19892646337386299</v>
+        <v>-0.002418988464998075</v>
       </c>
       <c r="D132">
-        <v>0.61666471281412294</v>
+        <v>0.6166647128141229</v>
       </c>
       <c r="E132">
-        <v>-1.9855522682445739E-3</v>
+        <v>0.198926463373863</v>
       </c>
       <c r="F132">
-        <v>-1.7202888145304069</v>
+        <v>0.08196234085403319</v>
       </c>
       <c r="G132">
+        <v>0.3693544635693455</v>
+      </c>
+      <c r="H132">
+        <v>-0.000854306501576552</v>
+      </c>
+      <c r="I132">
+        <v>0.1187777629894455</v>
+      </c>
+      <c r="J132">
         <v>1.0991005444677</v>
       </c>
-      <c r="H132">
-        <v>-6.3737969209461346E-3</v>
-      </c>
-      <c r="I132">
-        <v>0.11877776298944551</v>
-      </c>
-      <c r="J132">
-        <v>-2.191182919128024E-3</v>
-      </c>
       <c r="K132">
-        <v>0.3741574131846267</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.006373796920946135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B133">
-        <v>7.9268123750809522E-2</v>
+        <v>-0.00187721893491124</v>
       </c>
       <c r="C133">
-        <v>0.20609205556987839</v>
+        <v>-0.0001830481505448976</v>
       </c>
       <c r="D133">
-        <v>0.62416442578634035</v>
+        <v>0.6241644257863403</v>
       </c>
       <c r="E133">
-        <v>-1.8772189349112399E-3</v>
+        <v>0.2060920555698784</v>
       </c>
       <c r="F133">
-        <v>-1.7185584942514429</v>
+        <v>0.07926812375080952</v>
       </c>
       <c r="G133">
+        <v>0.36087107494548</v>
+      </c>
+      <c r="H133">
+        <v>0.000876013777387474</v>
+      </c>
+      <c r="I133">
+        <v>0.1293656147375981</v>
+      </c>
+      <c r="J133">
         <v>1.104494333891809</v>
       </c>
-      <c r="H133">
-        <v>-6.5912200627070098E-3</v>
-      </c>
-      <c r="I133">
-        <v>0.12936561473759811</v>
-      </c>
-      <c r="J133">
-        <v>-3.7964578929096382E-4</v>
-      </c>
       <c r="K133">
-        <v>0.36508160748182339</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00659122006270701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B134">
-        <v>9.4154520798717792E-2</v>
+        <v>-0.001968885601577906</v>
       </c>
       <c r="C134">
-        <v>0.22445989670890659</v>
+        <v>-0.00258886236511088</v>
       </c>
       <c r="D134">
-        <v>0.63289537593077316</v>
+        <v>0.6328953759307732</v>
       </c>
       <c r="E134">
-        <v>-1.9688856015779061E-3</v>
+        <v>0.2244598967089066</v>
       </c>
       <c r="F134">
-        <v>-1.7210389789927001</v>
+        <v>0.09415452079871779</v>
       </c>
       <c r="G134">
-        <v>1.1353322762831699</v>
+        <v>0.3847964344546242</v>
       </c>
       <c r="H134">
-        <v>-8.0367133332064859E-3</v>
+        <v>-0.001604470963869698</v>
       </c>
       <c r="I134">
-        <v>0.12874063756298559</v>
+        <v>0.1287406375629856</v>
       </c>
       <c r="J134">
-        <v>-2.365163519527327E-3</v>
+        <v>1.13533227628317</v>
       </c>
       <c r="K134">
-        <v>0.38900696699096771</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.008036713333206486</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B135">
+        <v>-0.002160552268244574</v>
+      </c>
+      <c r="C135">
+        <v>-0.003900574988027841</v>
+      </c>
+      <c r="D135">
+        <v>0.6461480242705795</v>
+      </c>
+      <c r="E135">
+        <v>0.2492188163164251</v>
+      </c>
+      <c r="F135">
         <v>0.1057330355899271</v>
       </c>
-      <c r="C135">
-        <v>0.24921881631642509</v>
-      </c>
-      <c r="D135">
-        <v>0.64614802427057949</v>
-      </c>
-      <c r="E135">
-        <v>-2.1605522682445742E-3</v>
-      </c>
-      <c r="F135">
-        <v>-1.721131342846572</v>
-      </c>
       <c r="G135">
+        <v>0.375681851092203</v>
+      </c>
+      <c r="H135">
+        <v>-0.001696834817742044</v>
+      </c>
+      <c r="I135">
+        <v>0.1246373861195886</v>
+      </c>
+      <c r="J135">
         <v>1.163224539868831</v>
       </c>
-      <c r="H135">
-        <v>-8.7756515131847627E-3</v>
-      </c>
-      <c r="I135">
-        <v>0.12463738611958861</v>
-      </c>
-      <c r="J135">
-        <v>-4.2996988438467471E-3</v>
-      </c>
       <c r="K135">
-        <v>0.38003900044575778</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.008775651513184763</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B136">
-        <v>0.12768895919954229</v>
+        <v>-0.002543885601577908</v>
       </c>
       <c r="C136">
-        <v>0.27316743374141339</v>
+        <v>-0.002313188943330071</v>
       </c>
       <c r="D136">
         <v>0.6553362816279833</v>
       </c>
       <c r="E136">
-        <v>-2.5438856015779078E-3</v>
+        <v>0.2731674337414134</v>
       </c>
       <c r="F136">
-        <v>-1.7219867749768569</v>
+        <v>0.1276889591995423</v>
       </c>
       <c r="G136">
+        <v>0.3902672949009908</v>
+      </c>
+      <c r="H136">
+        <v>-0.002552266948026983</v>
+      </c>
+      <c r="I136">
+        <v>0.1259117710650677</v>
+      </c>
+      <c r="J136">
         <v>1.169952014680766</v>
       </c>
-      <c r="H136">
-        <v>-6.2741959311703403E-3</v>
-      </c>
-      <c r="I136">
-        <v>0.12591177106506771</v>
-      </c>
-      <c r="J136">
-        <v>-1.8861809034737139E-3</v>
-      </c>
       <c r="K136">
-        <v>0.39404545732178542</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00627419593117034</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B137">
+        <v>-0.003968885601577906</v>
+      </c>
+      <c r="C137">
+        <v>-0.002390738675490413</v>
+      </c>
+      <c r="D137">
+        <v>0.6657410475533219</v>
+      </c>
+      <c r="E137">
+        <v>0.2939452135923792</v>
+      </c>
+      <c r="F137">
         <v>0.1481929936689827</v>
       </c>
-      <c r="C137">
-        <v>0.29394521359237918</v>
-      </c>
-      <c r="D137">
-        <v>0.66574104755332186</v>
-      </c>
-      <c r="E137">
-        <v>-3.9688856015779057E-3</v>
-      </c>
-      <c r="F137">
-        <v>-1.722567785412612</v>
-      </c>
       <c r="G137">
-        <v>1.1974793375079731</v>
+        <v>0.3993678738517409</v>
       </c>
       <c r="H137">
-        <v>-8.1957072086887243E-3</v>
+        <v>-0.003133277383781852</v>
       </c>
       <c r="I137">
-        <v>0.13075862372328251</v>
+        <v>0.1307586237232825</v>
       </c>
       <c r="J137">
-        <v>-2.5799058908630018E-3</v>
+        <v>1.197479337507973</v>
       </c>
       <c r="K137">
-        <v>0.40357840638808429</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.008195707208688724</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B138">
-        <v>0.14712327897779731</v>
+        <v>-0.003585552268244573</v>
       </c>
       <c r="C138">
-        <v>0.29888745538224631</v>
+        <v>-0.005894017610363646</v>
       </c>
       <c r="D138">
-        <v>0.67192920064238981</v>
+        <v>0.6719292006423898</v>
       </c>
       <c r="E138">
-        <v>-3.5855522682445729E-3</v>
+        <v>0.2988874553822463</v>
       </c>
       <c r="F138">
-        <v>-1.721379399829742</v>
+        <v>0.1471232789777973</v>
       </c>
       <c r="G138">
+        <v>0.4103424767172894</v>
+      </c>
+      <c r="H138">
+        <v>-0.001944891800912252</v>
+      </c>
+      <c r="I138">
+        <v>0.1284166003306635</v>
+      </c>
+      <c r="J138">
         <v>1.211509075153582</v>
       </c>
-      <c r="H138">
-        <v>-5.9411148826225514E-3</v>
-      </c>
-      <c r="I138">
-        <v>0.12841660033066349</v>
-      </c>
-      <c r="J138">
-        <v>-5.676495432996545E-3</v>
-      </c>
       <c r="K138">
-        <v>0.41483426365008691</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005941114882622551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B139">
-        <v>0.16791437267800349</v>
+        <v>-0.003468885601577907</v>
       </c>
       <c r="C139">
-        <v>0.30461516334007582</v>
+        <v>0.001483632737291161</v>
       </c>
       <c r="D139">
-        <v>0.68470720192195911</v>
+        <v>0.6847072019219591</v>
       </c>
       <c r="E139">
-        <v>-3.468885601577907E-3</v>
+        <v>0.3046151633400758</v>
       </c>
       <c r="F139">
-        <v>-1.721217102462421</v>
+        <v>0.1679143726780035</v>
       </c>
       <c r="G139">
-        <v>1.2388113760138071</v>
+        <v>0.4286864422125147</v>
       </c>
       <c r="H139">
-        <v>-5.2209725506707164E-3</v>
+        <v>-0.001782594433591267</v>
       </c>
       <c r="I139">
-        <v>0.13234574172782981</v>
+        <v>0.1323457417278298</v>
       </c>
       <c r="J139">
-        <v>1.4967003837679099E-3</v>
+        <v>1.238811376013807</v>
       </c>
       <c r="K139">
-        <v>0.43289697474885808</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005220972550670716</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B140">
+        <v>-0.002977218934911242</v>
+      </c>
+      <c r="C140">
+        <v>-0.003213822235777122</v>
+      </c>
+      <c r="D140">
+        <v>0.6921753775421702</v>
+      </c>
+      <c r="E140">
+        <v>0.3077619019075586</v>
+      </c>
+      <c r="F140">
         <v>0.1790776392738031</v>
       </c>
-      <c r="C140">
-        <v>0.30776190190755859</v>
-      </c>
-      <c r="D140">
-        <v>0.69217537754217018</v>
-      </c>
-      <c r="E140">
-        <v>-2.977218934911242E-3</v>
-      </c>
-      <c r="F140">
-        <v>-1.720814343086968</v>
-      </c>
       <c r="G140">
-        <v>1.2596206860225221</v>
+        <v>0.4293047359139303</v>
       </c>
       <c r="H140">
-        <v>-5.6312918782231384E-3</v>
+        <v>-0.00137983505813829</v>
       </c>
       <c r="I140">
-        <v>0.13875799679682871</v>
+        <v>0.1387579967968287</v>
       </c>
       <c r="J140">
-        <v>-3.3976001989354382E-3</v>
+        <v>1.259620686022522</v>
       </c>
       <c r="K140">
-        <v>0.4340630635885957</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005631291878223138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B141">
+        <v>-0.001993885601577908</v>
+      </c>
+      <c r="C141">
+        <v>-0.001119786947455483</v>
+      </c>
+      <c r="D141">
+        <v>0.7015020516071906</v>
+      </c>
+      <c r="E141">
+        <v>0.3168774458323478</v>
+      </c>
+      <c r="F141">
         <v>0.1962798881621568</v>
       </c>
-      <c r="C141">
-        <v>0.31687744583234778</v>
-      </c>
-      <c r="D141">
-        <v>0.70150205160719059</v>
-      </c>
-      <c r="E141">
-        <v>-1.9938856015779081E-3</v>
-      </c>
-      <c r="F141">
-        <v>-1.7228603508930169</v>
-      </c>
       <c r="G141">
+        <v>0.4259335331658331</v>
+      </c>
+      <c r="H141">
+        <v>-0.003425842864186979</v>
+      </c>
+      <c r="I141">
+        <v>0.1400196812952381</v>
+      </c>
+      <c r="J141">
         <v>1.259169926448515</v>
       </c>
-      <c r="H141">
-        <v>-5.7598520376265731E-3</v>
-      </c>
-      <c r="I141">
-        <v>0.14001968129523809</v>
-      </c>
-      <c r="J141">
-        <v>-1.1041829938934909E-3</v>
-      </c>
       <c r="K141">
-        <v>0.42987005556208713</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005759852037626573</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B142">
+        <v>-0.0008022189349112391</v>
+      </c>
+      <c r="C142">
+        <v>-0.001025664654451943</v>
+      </c>
+      <c r="D142">
+        <v>0.7033802204468289</v>
+      </c>
+      <c r="E142">
+        <v>0.3131262189120134</v>
+      </c>
+      <c r="F142">
         <v>0.1959478087395578</v>
       </c>
-      <c r="C142">
-        <v>0.31312621891201342</v>
-      </c>
-      <c r="D142">
-        <v>0.70338022044682891</v>
-      </c>
-      <c r="E142">
-        <v>-8.0221893491123908E-4</v>
-      </c>
-      <c r="F142">
-        <v>-1.7209870322900049</v>
-      </c>
       <c r="G142">
-        <v>1.2787241844832129</v>
+        <v>0.4354638685666463</v>
       </c>
       <c r="H142">
-        <v>-1.009879611215731E-3</v>
+        <v>-0.001552524261174771</v>
       </c>
       <c r="I142">
-        <v>0.13329232821985351</v>
+        <v>0.1332923282198535</v>
       </c>
       <c r="J142">
-        <v>-1.203953091220802E-3</v>
+        <v>1.278724184483213</v>
       </c>
       <c r="K142">
-        <v>0.43980898154865422</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001009879611215731</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B143">
-        <v>0.18762057678051011</v>
+        <v>-0.0003188856015779052</v>
       </c>
       <c r="C143">
-        <v>0.30096878426490742</v>
+        <v>-0.0001680723007304284</v>
       </c>
       <c r="D143">
-        <v>0.70658985775346306</v>
+        <v>0.7065898577534631</v>
       </c>
       <c r="E143">
-        <v>-3.188856015779052E-4</v>
+        <v>0.3009687842649074</v>
       </c>
       <c r="F143">
-        <v>-1.7203629417941271</v>
+        <v>0.1876205767805101</v>
       </c>
       <c r="G143">
-        <v>1.3100425275526499</v>
+        <v>0.4337314701010504</v>
       </c>
       <c r="H143">
-        <v>-4.7104826583277918E-3</v>
+        <v>-0.0009284337652971323</v>
       </c>
       <c r="I143">
         <v>0.1338667186620057</v>
       </c>
       <c r="J143">
-        <v>-1.503488982631668E-4</v>
+        <v>1.31004252755265</v>
       </c>
       <c r="K143">
-        <v>0.43834460614548248</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004710482658327792</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B144">
-        <v>0.1845767598552662</v>
+        <v>0.0004394477317554261</v>
       </c>
       <c r="C144">
-        <v>0.27714788174617683</v>
+        <v>-0.001236401245795906</v>
       </c>
       <c r="D144">
         <v>0.7129975540802449</v>
       </c>
       <c r="E144">
-        <v>4.3944773175542609E-4</v>
+        <v>0.2771478817461768</v>
       </c>
       <c r="F144">
-        <v>-1.72117876292522</v>
+        <v>0.1845767598552662</v>
       </c>
       <c r="G144">
+        <v>0.4474571094044255</v>
+      </c>
+      <c r="H144">
+        <v>-0.001744254896390263</v>
+      </c>
+      <c r="I144">
+        <v>0.1285191655168663</v>
+      </c>
+      <c r="J144">
         <v>1.312173864543545</v>
       </c>
-      <c r="H144">
-        <v>-5.5575268262880121E-3</v>
-      </c>
-      <c r="I144">
-        <v>0.12851916551686629</v>
-      </c>
-      <c r="J144">
-        <v>-8.3918097102610167E-4</v>
-      </c>
       <c r="K144">
-        <v>0.4515357071163808</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005557526826288012</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B145">
-        <v>0.18198644073781511</v>
+        <v>0.0004394477317554261</v>
       </c>
       <c r="C145">
+        <v>-0.0005821396049447668</v>
+      </c>
+      <c r="D145">
+        <v>0.7183702916195971</v>
+      </c>
+      <c r="E145">
         <v>0.2750449510094084</v>
       </c>
-      <c r="D145">
-        <v>0.71837029161959709</v>
-      </c>
-      <c r="E145">
-        <v>4.3944773175542609E-4</v>
-      </c>
       <c r="F145">
-        <v>-1.719627795128239</v>
+        <v>0.1819864407378151</v>
       </c>
       <c r="G145">
-        <v>1.3113307051695939</v>
+        <v>0.4494491416590857</v>
       </c>
       <c r="H145">
-        <v>-5.859916996109377E-3</v>
+        <v>-0.000193287099408657</v>
       </c>
       <c r="I145">
         <v>0.1193885243140724</v>
       </c>
       <c r="J145">
-        <v>-9.4426066628806871E-4</v>
+        <v>1.311330705169594</v>
       </c>
       <c r="K145">
-        <v>0.4537908991808543</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005859916996109377</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B146">
+        <v>-0.002560552268244573</v>
+      </c>
+      <c r="C146">
+        <v>-0.002739907815552303</v>
+      </c>
+      <c r="D146">
+        <v>0.7199554774350578</v>
+      </c>
+      <c r="E146">
+        <v>0.2779365366517723</v>
+      </c>
+      <c r="F146">
         <v>0.1768086575392023</v>
       </c>
-      <c r="C146">
-        <v>0.27793653665177231</v>
-      </c>
-      <c r="D146">
-        <v>0.71995547743505783</v>
-      </c>
-      <c r="E146">
-        <v>-2.560552268244573E-3</v>
-      </c>
-      <c r="F146">
-        <v>-1.721603815023798</v>
-      </c>
       <c r="G146">
-        <v>1.2979251068777611</v>
+        <v>0.4523012818896922</v>
       </c>
       <c r="H146">
-        <v>-2.838781197333213E-3</v>
+        <v>-0.002169306994968057</v>
       </c>
       <c r="I146">
-        <v>0.11000244436093889</v>
+        <v>0.1100024443609389</v>
       </c>
       <c r="J146">
-        <v>-2.7227287015562239E-3</v>
+        <v>1.297925106877761</v>
       </c>
       <c r="K146">
-        <v>0.45586140789904223</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002838781197333213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B147">
-        <v>0.1784420466156853</v>
+        <v>-0.00545221893491124</v>
       </c>
       <c r="C147">
-        <v>0.28862180645720681</v>
+        <v>-0.01041337430270258</v>
       </c>
       <c r="D147">
         <v>0.7194973584704365</v>
       </c>
       <c r="E147">
-        <v>-5.4522189349112404E-3</v>
+        <v>0.2886218064572068</v>
       </c>
       <c r="F147">
-        <v>-1.720996001312123</v>
+        <v>0.1784420466156853</v>
       </c>
       <c r="G147">
-        <v>1.2585014969783339</v>
+        <v>0.4507163938065378</v>
       </c>
       <c r="H147">
-        <v>-2.358087620792532E-3</v>
+        <v>-0.001561493283293103</v>
       </c>
       <c r="I147">
         <v>0.1016529583631831</v>
       </c>
       <c r="J147">
-        <v>-1.002533078875824E-2</v>
+        <v>1.258501496978334</v>
       </c>
       <c r="K147">
-        <v>0.45518562508963512</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002358087620792532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B148">
-        <v>0.16429133324094361</v>
+        <v>-0.006677218934911241</v>
       </c>
       <c r="C148">
-        <v>0.28986588710257261</v>
+        <v>-0.005774410344549809</v>
       </c>
       <c r="D148">
-        <v>0.72070845866366229</v>
+        <v>0.7207084586636623</v>
       </c>
       <c r="E148">
-        <v>-6.6772189349112408E-3</v>
+        <v>0.2898658871025726</v>
       </c>
       <c r="F148">
-        <v>-1.7240528257671539</v>
+        <v>0.1642913332409436</v>
       </c>
       <c r="G148">
-        <v>1.2375958825575479</v>
+        <v>0.4592463831615691</v>
       </c>
       <c r="H148">
-        <v>-7.3649428884917049E-3</v>
+        <v>-0.004618317738323963</v>
       </c>
       <c r="I148">
-        <v>9.3727898235586693E-2</v>
+        <v>0.09372789823558669</v>
       </c>
       <c r="J148">
-        <v>-6.130107517206787E-3</v>
+        <v>1.237595882557548</v>
       </c>
       <c r="K148">
-        <v>0.46409691571975792</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.007364942888491705</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B149">
-        <v>0.15906823573550449</v>
+        <v>-0.009835552268244573</v>
       </c>
       <c r="C149">
-        <v>0.27711129527644029</v>
+        <v>-0.003411995453004048</v>
       </c>
       <c r="D149">
-        <v>0.73432838293946201</v>
+        <v>0.734328382939462</v>
       </c>
       <c r="E149">
-        <v>-9.8355522682445733E-3</v>
+        <v>0.2771112952764403</v>
       </c>
       <c r="F149">
-        <v>-1.72318984051791</v>
+        <v>0.1590682357355045</v>
       </c>
       <c r="G149">
-        <v>1.1986161440269241</v>
+        <v>0.4682566995235639</v>
       </c>
       <c r="H149">
-        <v>-5.4185532197515377E-3</v>
+        <v>-0.003755332489080299</v>
       </c>
       <c r="I149">
-        <v>7.8522709591294593E-2</v>
+        <v>0.07852270959129459</v>
       </c>
       <c r="J149">
-        <v>-3.394962549924677E-3</v>
+        <v>1.198616144026924</v>
       </c>
       <c r="K149">
-        <v>0.47234080181762511</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005418553219751538</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B150">
-        <v>0.15100193004023141</v>
+        <v>-0.01029388560157791</v>
       </c>
       <c r="C150">
-        <v>0.29926228412591632</v>
+        <v>-0.002014078385892595</v>
       </c>
       <c r="D150">
-        <v>0.73527995797689316</v>
+        <v>0.7352799579768932</v>
       </c>
       <c r="E150">
-        <v>-1.029388560157791E-2</v>
+        <v>0.2992622841259163</v>
       </c>
       <c r="F150">
-        <v>-1.7254975072162551</v>
+        <v>0.1510019300402314</v>
       </c>
       <c r="G150">
-        <v>1.1618930723869689</v>
+        <v>0.4907921202806492</v>
       </c>
       <c r="H150">
-        <v>-9.1655262519712514E-3</v>
+        <v>-0.006062999187424889</v>
       </c>
       <c r="I150">
-        <v>7.6838574086899314E-2</v>
+        <v>0.07683857408689931</v>
       </c>
       <c r="J150">
-        <v>-1.8147353413223849E-3</v>
+        <v>1.161893072386969</v>
       </c>
       <c r="K150">
-        <v>0.4951262545722947</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.009165526251971251</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B151">
-        <v>0.13423054672040449</v>
+        <v>-0.01031055226824457</v>
       </c>
       <c r="C151">
-        <v>0.31939266972751851</v>
+        <v>-0.004987634803670118</v>
       </c>
       <c r="D151">
-        <v>0.73863506369329412</v>
+        <v>0.7386350636932941</v>
       </c>
       <c r="E151">
-        <v>-1.031055226824457E-2</v>
+        <v>0.3193926697275185</v>
       </c>
       <c r="F151">
-        <v>-1.7239557624871209</v>
+        <v>0.1342305467204045</v>
       </c>
       <c r="G151">
+        <v>0.4908069183594857</v>
+      </c>
+      <c r="H151">
+        <v>-0.004521254458290514</v>
+      </c>
+      <c r="I151">
+        <v>0.08025353201693264</v>
+      </c>
+      <c r="J151">
         <v>1.143690496175942</v>
       </c>
-      <c r="H151">
-        <v>-4.213660375242562E-3</v>
-      </c>
-      <c r="I151">
-        <v>8.0253532016932638E-2</v>
-      </c>
-      <c r="J151">
-        <v>-5.1529772000090818E-3</v>
-      </c>
       <c r="K151">
-        <v>0.49477141817223591</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004213660375242562</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B152">
-        <v>0.13097909702452851</v>
+        <v>-0.01049388560157791</v>
       </c>
       <c r="C152">
-        <v>0.32122716266204071</v>
+        <v>-0.002152428738021874</v>
       </c>
       <c r="D152">
         <v>0.7411716413513032</v>
       </c>
       <c r="E152">
-        <v>-1.049388560157791E-2</v>
+        <v>0.3212271626620407</v>
       </c>
       <c r="F152">
-        <v>-1.7215572561264201</v>
+        <v>0.1309790970245285</v>
       </c>
       <c r="G152">
-        <v>1.1356878468178691</v>
+        <v>0.4798810020932273</v>
       </c>
       <c r="H152">
-        <v>-6.8525055606488087E-3</v>
+        <v>-0.002122748097590133</v>
       </c>
       <c r="I152">
-        <v>7.4012996717081059E-2</v>
+        <v>0.07401299671708106</v>
       </c>
       <c r="J152">
-        <v>-1.9558784345589252E-3</v>
+        <v>1.135687846817869</v>
       </c>
       <c r="K152">
-        <v>0.48409153462957072</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.006852505560648809</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B153">
+        <v>-0.01126888560157791</v>
+      </c>
+      <c r="C153">
+        <v>-0.004011537151433955</v>
+      </c>
+      <c r="D153">
+        <v>0.7415895514939574</v>
+      </c>
+      <c r="E153">
+        <v>0.333903755172023</v>
+      </c>
+      <c r="F153">
         <v>0.1223365840815287</v>
       </c>
-      <c r="C153">
-        <v>0.33390375517202298</v>
-      </c>
-      <c r="D153">
-        <v>0.74158955149395744</v>
-      </c>
-      <c r="E153">
-        <v>-1.126888560157791E-2</v>
-      </c>
-      <c r="F153">
-        <v>-1.721640014237187</v>
-      </c>
       <c r="G153">
+        <v>0.5149383601397528</v>
+      </c>
+      <c r="H153">
+        <v>-0.0022055062083571</v>
+      </c>
+      <c r="I153">
+        <v>0.06862455452951233</v>
+      </c>
+      <c r="J153">
         <v>1.11987188053453</v>
       </c>
-      <c r="H153">
-        <v>-5.2540548567945834E-3</v>
-      </c>
-      <c r="I153">
-        <v>6.8624554529512327E-2</v>
-      </c>
-      <c r="J153">
-        <v>-4.1739800246575337E-3</v>
-      </c>
       <c r="K153">
-        <v>0.51926821729887362</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005254054856794583</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B154">
+        <v>-0.01171055226824457</v>
+      </c>
+      <c r="C154">
+        <v>-0.006185769242983166</v>
+      </c>
+      <c r="D154">
+        <v>0.7395735907030319</v>
+      </c>
+      <c r="E154">
+        <v>0.3367269448637549</v>
+      </c>
+      <c r="F154">
         <v>0.1122800809626051</v>
       </c>
-      <c r="C154">
-        <v>0.33672694486375487</v>
-      </c>
-      <c r="D154">
-        <v>0.73957359070303186</v>
-      </c>
-      <c r="E154">
-        <v>-1.171055226824457E-2</v>
-      </c>
-      <c r="F154">
-        <v>-1.7239027886302969</v>
-      </c>
       <c r="G154">
+        <v>0.516032323267821</v>
+      </c>
+      <c r="H154">
+        <v>-0.004468280601466723</v>
+      </c>
+      <c r="I154">
+        <v>0.05928840320488549</v>
+      </c>
+      <c r="J154">
         <v>1.106069931323661</v>
       </c>
-      <c r="H154">
-        <v>-4.2761603940207286E-3</v>
-      </c>
-      <c r="I154">
-        <v>5.9288403204885487E-2</v>
-      </c>
-      <c r="J154">
-        <v>-5.8149862329631846E-3</v>
-      </c>
       <c r="K154">
-        <v>0.51964956002882579</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.004276160394020729</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B155">
+        <v>-0.01200221893491124</v>
+      </c>
+      <c r="C155">
+        <v>-0.003745582571275743</v>
+      </c>
+      <c r="D155">
+        <v>0.7454678635575203</v>
+      </c>
+      <c r="E155">
+        <v>0.3586008692660414</v>
+      </c>
+      <c r="F155">
         <v>0.117356566949991</v>
       </c>
-      <c r="C155">
-        <v>0.3586008692660414</v>
-      </c>
-      <c r="D155">
-        <v>0.74546786355752026</v>
-      </c>
-      <c r="E155">
-        <v>-1.2002218934911241E-2</v>
-      </c>
-      <c r="F155">
-        <v>-1.7263375915341379</v>
-      </c>
       <c r="G155">
+        <v>0.5186352101554346</v>
+      </c>
+      <c r="H155">
+        <v>-0.006903083505307517</v>
+      </c>
+      <c r="I155">
+        <v>0.04995310996550284</v>
+      </c>
+      <c r="J155">
         <v>1.128503834364474</v>
       </c>
-      <c r="H155">
-        <v>-8.1815400689695898E-3</v>
-      </c>
-      <c r="I155">
-        <v>4.995310996550284E-2</v>
-      </c>
-      <c r="J155">
-        <v>-3.7312866711086828E-3</v>
-      </c>
       <c r="K155">
-        <v>0.52296393901601013</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.00818154006896959</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B156">
+        <v>-0.01227721893491124</v>
+      </c>
+      <c r="C156">
+        <v>-0.00975252471982976</v>
+      </c>
+      <c r="D156">
+        <v>0.7563130558461166</v>
+      </c>
+      <c r="E156">
+        <v>0.4053644395173572</v>
+      </c>
+      <c r="F156">
         <v>0.1271179770616426</v>
       </c>
-      <c r="C156">
-        <v>0.40536443951735718</v>
-      </c>
-      <c r="D156">
-        <v>0.75631305584611663</v>
-      </c>
-      <c r="E156">
-        <v>-1.227721893491124E-2</v>
-      </c>
-      <c r="F156">
-        <v>-1.7248421711655051</v>
-      </c>
       <c r="G156">
-        <v>1.1475268526451099</v>
+        <v>0.5445176223714421</v>
       </c>
       <c r="H156">
-        <v>-5.890849755452671E-3</v>
+        <v>-0.005407663136674923</v>
       </c>
       <c r="I156">
-        <v>4.8733932029405118E-2</v>
+        <v>0.04873393202940512</v>
       </c>
       <c r="J156">
-        <v>-1.0088352985844999E-2</v>
+        <v>1.14752685264511</v>
       </c>
       <c r="K156">
-        <v>0.54884295888012891</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005890849755452671</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B157">
-        <v>0.1191448224807946</v>
+        <v>-0.01231055226824457</v>
       </c>
       <c r="C157">
-        <v>0.42728199604254069</v>
+        <v>-0.009579167081463526</v>
       </c>
       <c r="D157">
         <v>0.7584981829173314</v>
       </c>
       <c r="E157">
-        <v>-1.231055226824457E-2</v>
+        <v>0.4272819960425407</v>
       </c>
       <c r="F157">
-        <v>-1.727889584456606</v>
+        <v>0.1191448224807946</v>
       </c>
       <c r="G157">
-        <v>1.1510714783288889</v>
+        <v>0.5576545960720276</v>
       </c>
       <c r="H157">
-        <v>-6.3223603308833424E-3</v>
+        <v>-0.008455076427776287</v>
       </c>
       <c r="I157">
-        <v>5.8998248813795673E-2</v>
+        <v>0.05899824881379567</v>
       </c>
       <c r="J157">
-        <v>-9.5632860221947086E-3</v>
+        <v>1.151071478328889</v>
       </c>
       <c r="K157">
-        <v>0.56209109177733607</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.006322360330883342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B158">
-        <v>0.13284880564425419</v>
+        <v>-0.01231055226824457</v>
       </c>
       <c r="C158">
-        <v>0.43436669904044051</v>
+        <v>-0.003996025105588354</v>
       </c>
       <c r="D158">
-        <v>0.76964236851743939</v>
+        <v>0.7696423685174394</v>
       </c>
       <c r="E158">
-        <v>-1.231055226824457E-2</v>
+        <v>0.4343666990404405</v>
       </c>
       <c r="F158">
-        <v>-1.7259646547959679</v>
+        <v>0.1328488056442542</v>
       </c>
       <c r="G158">
-        <v>1.1549487624917401</v>
+        <v>0.5799477991638939</v>
       </c>
       <c r="H158">
-        <v>-2.7602229055206408E-4</v>
+        <v>-0.006530146767138223</v>
       </c>
       <c r="I158">
-        <v>6.6117285388204827E-2</v>
+        <v>0.06611728538820483</v>
       </c>
       <c r="J158">
-        <v>-3.805090214433884E-3</v>
+        <v>1.15494876249174</v>
       </c>
       <c r="K158">
-        <v>0.58448686480290202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0002760222905520641</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B159">
-        <v>0.13362219466730091</v>
+        <v>-0.01191055226824457</v>
       </c>
       <c r="C159">
-        <v>0.476739198420014</v>
+        <v>-0.008550689887232035</v>
       </c>
       <c r="D159">
         <v>0.7741296965786435</v>
       </c>
       <c r="E159">
-        <v>-1.191055226824457E-2</v>
+        <v>0.476739198420014</v>
       </c>
       <c r="F159">
-        <v>-1.7240669330163401</v>
+        <v>0.1336221946673009</v>
       </c>
       <c r="G159">
+        <v>0.5778823785183289</v>
+      </c>
+      <c r="H159">
+        <v>-0.00463242498751012</v>
+      </c>
+      <c r="I159">
+        <v>0.06704202201419962</v>
+      </c>
+      <c r="J159">
         <v>1.169572678224545</v>
       </c>
-      <c r="H159">
-        <v>-1.6041241146372231E-3</v>
-      </c>
-      <c r="I159">
-        <v>6.704202201419962E-2</v>
-      </c>
-      <c r="J159">
-        <v>-8.5350859336695978E-3</v>
-      </c>
       <c r="K159">
-        <v>0.5820929110546722</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001604124114637223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B160">
-        <v>0.14377425651614009</v>
+        <v>-0.01088555226824457</v>
       </c>
       <c r="C160">
-        <v>0.48152058069034981</v>
+        <v>-0.009077087090488347</v>
       </c>
       <c r="D160">
-        <v>0.78057266574851081</v>
+        <v>0.7805726657485108</v>
       </c>
       <c r="E160">
-        <v>-1.088555226824457E-2</v>
+        <v>0.4815205806903498</v>
       </c>
       <c r="F160">
-        <v>-1.7234755984434791</v>
+        <v>0.1437742565161401</v>
       </c>
       <c r="G160">
+        <v>0.6041408403098599</v>
+      </c>
+      <c r="H160">
+        <v>-0.004041090414648696</v>
+      </c>
+      <c r="I160">
+        <v>0.06614568174653979</v>
+      </c>
+      <c r="J160">
         <v>1.190956478977909</v>
       </c>
-      <c r="H160">
-        <v>-3.2324049427244149E-3</v>
-      </c>
-      <c r="I160">
-        <v>6.6145681746539786E-2</v>
-      </c>
-      <c r="J160">
-        <v>-9.0614831369263543E-3</v>
-      </c>
       <c r="K160">
-        <v>0.6085623210591995</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.003232404942724415</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B161">
-        <v>0.15770041185172229</v>
+        <v>-0.009585552268244575</v>
       </c>
       <c r="C161">
-        <v>0.47664256636025559</v>
+        <v>-0.00873568765199392</v>
       </c>
       <c r="D161">
-        <v>0.78773598172328407</v>
+        <v>0.7877359817232841</v>
       </c>
       <c r="E161">
-        <v>-9.5855522682445748E-3</v>
+        <v>0.4766425663602556</v>
       </c>
       <c r="F161">
-        <v>-1.7247886562436801</v>
+        <v>0.1577004118517223</v>
       </c>
       <c r="G161">
-        <v>1.2077392606619051</v>
+        <v>0.5972283192215824</v>
       </c>
       <c r="H161">
-        <v>-1.110513578819698E-4</v>
+        <v>-0.005354148214849442</v>
       </c>
       <c r="I161">
-        <v>5.9450276156410631E-2</v>
+        <v>0.05945027615641063</v>
       </c>
       <c r="J161">
-        <v>-8.5472676606736103E-3</v>
+        <v>1.207739260661905</v>
       </c>
       <c r="K161">
-        <v>0.60196502909182326</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0001110513578819698</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B162">
-        <v>0.15301945982778201</v>
+        <v>-0.008260552268244573</v>
       </c>
       <c r="C162">
+        <v>-0.01029447160460359</v>
+      </c>
+      <c r="D162">
+        <v>0.7917619914622445</v>
+      </c>
+      <c r="E162">
         <v>0.5001346380067595</v>
       </c>
-      <c r="D162">
-        <v>0.79176199146224446</v>
-      </c>
-      <c r="E162">
-        <v>-8.2605522682445733E-3</v>
-      </c>
       <c r="F162">
-        <v>-1.7248233463188349</v>
+        <v>0.153019459827782</v>
       </c>
       <c r="G162">
-        <v>1.2195901998158549</v>
+        <v>0.6047239577243838</v>
       </c>
       <c r="H162">
-        <v>-9.6057654412634065E-4</v>
+        <v>-0.005388838290004994</v>
       </c>
       <c r="I162">
-        <v>5.9758254704382008E-2</v>
+        <v>0.05975825470438201</v>
       </c>
       <c r="J162">
-        <v>-1.062438034754888E-2</v>
+        <v>1.219590199815855</v>
       </c>
       <c r="K162">
-        <v>0.6091417226726179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0009605765441263407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B163">
+        <v>-0.007443885601577907</v>
+      </c>
+      <c r="C163">
+        <v>-0.007194439401281474</v>
+      </c>
+      <c r="D163">
+        <v>0.7992746018376042</v>
+      </c>
+      <c r="E163">
+        <v>0.5427633697978971</v>
+      </c>
+      <c r="F163">
         <v>0.1875397857687762</v>
       </c>
-      <c r="C163">
-        <v>0.54276336979789708</v>
-      </c>
-      <c r="D163">
-        <v>0.79927460183760424</v>
-      </c>
-      <c r="E163">
-        <v>-7.4438856015779072E-3</v>
-      </c>
-      <c r="F163">
-        <v>-1.7236110074465789</v>
-      </c>
       <c r="G163">
+        <v>0.6260877601484702</v>
+      </c>
+      <c r="H163">
+        <v>-0.004176499417748747</v>
+      </c>
+      <c r="I163">
+        <v>0.05900440721736366</v>
+      </c>
+      <c r="J163">
         <v>1.229275925276343</v>
       </c>
-      <c r="H163">
-        <v>-2.8998512639236088E-3</v>
-      </c>
-      <c r="I163">
-        <v>5.9004407217363657E-2</v>
-      </c>
-      <c r="J163">
-        <v>-7.006138788970509E-3</v>
-      </c>
       <c r="K163">
-        <v>0.62989498556097612</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002899851263923609</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B164">
-        <v>0.19030134150065589</v>
+        <v>-0.006202218934911241</v>
       </c>
       <c r="C164">
-        <v>0.55652228489214295</v>
+        <v>-0.004643572273119036</v>
       </c>
       <c r="D164">
-        <v>0.80557698378047826</v>
+        <v>0.8055769837804783</v>
       </c>
       <c r="E164">
-        <v>-6.2022189349112411E-3</v>
+        <v>0.5565222848921429</v>
       </c>
       <c r="F164">
-        <v>-1.722630452680197</v>
+        <v>0.1903013415006559</v>
       </c>
       <c r="G164">
-        <v>1.2403494519215339</v>
+        <v>0.6394500282503062</v>
       </c>
       <c r="H164">
-        <v>-5.5824602130543667E-4</v>
+        <v>-0.003195944651366823</v>
       </c>
       <c r="I164">
-        <v>6.4051913114674175E-2</v>
+        <v>0.06405191311467417</v>
       </c>
       <c r="J164">
-        <v>-4.457101168350866E-3</v>
+        <v>1.240349451921534</v>
       </c>
       <c r="K164">
-        <v>0.64326600564245029</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0005582460213054367</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B165">
-        <v>0.21219101223506989</v>
+        <v>-0.005035552268244575</v>
       </c>
       <c r="C165">
-        <v>0.55069046820599965</v>
+        <v>-0.006725168455465193</v>
       </c>
       <c r="D165">
-        <v>0.80405130188977303</v>
+        <v>0.804051301889773</v>
       </c>
       <c r="E165">
-        <v>-5.0355522682445754E-3</v>
+        <v>0.5506904682059997</v>
       </c>
       <c r="F165">
-        <v>-1.721877989630278</v>
+        <v>0.2121910122350699</v>
       </c>
       <c r="G165">
-        <v>1.2496773835698891</v>
+        <v>0.6557252239209399</v>
       </c>
       <c r="H165">
-        <v>-1.0504435082588309E-3</v>
+        <v>-0.002443481601447662</v>
       </c>
       <c r="I165">
-        <v>7.1222550492416214E-2</v>
+        <v>0.07122255049241621</v>
       </c>
       <c r="J165">
-        <v>-7.0505720193215909E-3</v>
+        <v>1.249677383569889</v>
       </c>
       <c r="K165">
-        <v>0.66012823071444549</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.001050443508258831</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B166">
+        <v>-0.003618885601577906</v>
+      </c>
+      <c r="C166">
+        <v>-0.008439936975535214</v>
+      </c>
+      <c r="D166">
+        <v>0.8133149903238031</v>
+      </c>
+      <c r="E166">
+        <v>0.5475484906937726</v>
+      </c>
+      <c r="F166">
         <v>0.2361973013789854</v>
       </c>
-      <c r="C166">
-        <v>0.54754849069377265</v>
-      </c>
-      <c r="D166">
-        <v>0.81331499032380306</v>
-      </c>
-      <c r="E166">
-        <v>-3.618885601577906E-3</v>
-      </c>
-      <c r="F166">
-        <v>-1.7207414727013699</v>
-      </c>
       <c r="G166">
-        <v>1.2791909623332569</v>
+        <v>0.650559232948004</v>
       </c>
       <c r="H166">
-        <v>-2.041986297046933E-3</v>
+        <v>-0.001306964672540179</v>
       </c>
       <c r="I166">
-        <v>7.5914104373960178E-2</v>
+        <v>0.07591410437396018</v>
       </c>
       <c r="J166">
-        <v>-8.084542981929746E-3</v>
+        <v>1.279190962333257</v>
       </c>
       <c r="K166">
-        <v>0.65448153951319221</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.002041986297046933</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B167">
-        <v>0.23474602445552689</v>
+        <v>-0.002843885601577908</v>
       </c>
       <c r="C167">
-        <v>0.51508099054940981</v>
+        <v>-0.0008619348025524463</v>
       </c>
       <c r="D167">
-        <v>0.81675448999284406</v>
+        <v>0.8167544899928441</v>
       </c>
       <c r="E167">
-        <v>-2.8438856015779081E-3</v>
+        <v>0.5150809905494098</v>
       </c>
       <c r="F167">
-        <v>-1.71963934620711</v>
+        <v>0.2347460244555269</v>
       </c>
       <c r="G167">
+        <v>0.6574941905648108</v>
+      </c>
+      <c r="H167">
+        <v>-0.0002048381782798429</v>
+      </c>
+      <c r="I167">
+        <v>0.08080690044971472</v>
+      </c>
+      <c r="J167">
         <v>1.287062254040712</v>
       </c>
-      <c r="H167">
-        <v>-8.1309514726251621E-4</v>
-      </c>
-      <c r="I167">
-        <v>8.0806900449714725E-2</v>
-      </c>
-      <c r="J167">
-        <v>-1.0159805228217159E-3</v>
-      </c>
       <c r="K167">
-        <v>0.66132622196113211</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0008130951472625162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B168">
-        <v>0.23237487147032959</v>
+        <v>-0.002335552268244575</v>
       </c>
       <c r="C168">
-        <v>0.46027429235528489</v>
+        <v>0.003842027965179438</v>
       </c>
       <c r="D168">
-        <v>0.82050483940855079</v>
+        <v>0.8205048394085508</v>
       </c>
       <c r="E168">
-        <v>-2.3355522682445748E-3</v>
+        <v>0.4602742923552849</v>
       </c>
       <c r="F168">
-        <v>-1.720947435386478</v>
+        <v>0.2323748714703296</v>
       </c>
       <c r="G168">
-        <v>1.3076717260774691</v>
+        <v>0.6468568487693944</v>
       </c>
       <c r="H168">
-        <v>-7.0448339795579577E-3</v>
+        <v>-0.001512927357647598</v>
       </c>
       <c r="I168">
-        <v>8.4798501057602671E-2</v>
+        <v>0.08479850105760267</v>
       </c>
       <c r="J168">
-        <v>3.85763191874143E-3</v>
+        <v>1.307671726077469</v>
       </c>
       <c r="K168">
-        <v>0.65135359988327723</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.007044833979557958</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B169">
-        <v>0.23968927421920719</v>
+        <v>-0.002343885601577908</v>
       </c>
       <c r="C169">
-        <v>0.40194623739479329</v>
+        <v>0.000191486107574055</v>
       </c>
       <c r="D169">
-        <v>0.82771409955824682</v>
+        <v>0.8277140995582468</v>
       </c>
       <c r="E169">
-        <v>-2.3438856015779081E-3</v>
+        <v>0.4019462373947933</v>
       </c>
       <c r="F169">
-        <v>-1.7210415501726011</v>
-      </c>
-      <c r="G169">
-        <v>1.2965917640991831</v>
+        <v>0.2396892742192072</v>
       </c>
       <c r="H169">
-        <v>-7.8332565860153528E-3</v>
+        <v>-0.001607042143770688</v>
       </c>
       <c r="I169">
-        <v>8.0088414272091679E-2</v>
+        <v>0.08008841427209168</v>
       </c>
       <c r="J169">
-        <v>2.0709006113604769E-4</v>
+        <v>1.296591764099183</v>
       </c>
       <c r="K169">
-        <v>0.64054376582788275</v>
+        <v>-0.007833256586015353</v>
       </c>
     </row>
   </sheetData>
